--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1053880.098050316</v>
+        <v>989094.1311560489</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13581310.90196467</v>
+        <v>13581310.90196468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6375456.915232424</v>
+        <v>6375456.915232425</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>43.88160242219474</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V11" t="n">
         <v>200.1479483760444</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X11" t="n">
-        <v>200.1479483760444</v>
+        <v>167.6689011768735</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>125.2817432939153</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>21.79435200190669</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H12" t="n">
-        <v>100.6160379875227</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>47.97413555148589</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.46014348031223</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X12" t="n">
         <v>200.1479483760444</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9823413329452</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.04847171286322</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.52506706819847</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>200.1479483760444</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>41.72192047124198</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>200.1479483760444</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="H14" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.2903129296199</v>
       </c>
       <c r="U14" t="n">
         <v>200.1479483760445</v>
       </c>
       <c r="V14" t="n">
-        <v>176.2903129296199</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>46.08468186194781</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U15" t="n">
-        <v>200.1479483760445</v>
+        <v>8.414368019805451</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>174.5879501597939</v>
+      </c>
+      <c r="T16" t="n">
         <v>200.1479483760445</v>
       </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
-        <v>62.06802941427931</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>176.2903129296198</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="H17" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X17" t="n">
-        <v>176.2903129296199</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,10 +1931,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>67.29256616965976</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>200.1479483760446</v>
+        <v>71.34811528562456</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>46.28844533568854</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.702362769826038</v>
+        <v>1.702362769826067</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>174.5879501597939</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V19" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>8.621411752746411</v>
       </c>
       <c r="S20" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760443</v>
       </c>
       <c r="U20" t="n">
-        <v>9.888472682992635</v>
+        <v>167.6689011768733</v>
       </c>
       <c r="V20" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760443</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>200.1479483760443</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>6.326593960939034</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>25.46014348031223</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T21" t="n">
         <v>195.3153942975433</v>
       </c>
       <c r="U21" t="n">
-        <v>16.56898926567049</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760443</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>200.1479483760443</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.702362769826067</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>131.9413579754411</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.1479483760443</v>
       </c>
       <c r="T22" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>42.64659218435285</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>76.24794488417903</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>200.1479483760444</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>9.888472682992612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>8.621411752746411</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>176.2903129296199</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>14.68975157073199</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>25.46014348031223</v>
       </c>
       <c r="S24" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V24" t="n">
-        <v>6.326593960939221</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="W24" t="n">
         <v>200.1479483760444</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>125.1179786690865</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>1.702362769826067</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>131.9413579754411</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>171.390547620786</v>
       </c>
       <c r="T25" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>28.15398751322459</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>176.29031292962</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="G26" t="n">
-        <v>18.50988443573901</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760446</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U27" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>69.45705128339371</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>57.09255127889755</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>174.587950159794</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2757,31 +2757,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.702362769826067</v>
       </c>
       <c r="R28" t="n">
-        <v>131.9413579754411</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>98.06294068365406</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>18.509884435739</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>8.621411752746411</v>
       </c>
       <c r="S29" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W29" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>167.6689011768735</v>
       </c>
     </row>
     <row r="30">
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.46014348031223</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>200.1479483760444</v>
+        <v>176.2903129296199</v>
       </c>
       <c r="V30" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="X30" t="n">
-        <v>6.326593960939252</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>1.702362769826067</v>
       </c>
       <c r="R31" t="n">
-        <v>131.9413579754411</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>75.54771946176942</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>174.587950159794</v>
       </c>
       <c r="X31" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>167.6689011768735</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="V32" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="X32" t="n">
-        <v>200.1479483760444</v>
+        <v>167.6689011768735</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.46014348031223</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>70.33412445840791</v>
+        <v>176.2903129296199</v>
       </c>
       <c r="V33" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>84.58325063616418</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.702362769826067</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>131.9413579754411</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760446</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.6465921843528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>167.6689011768735</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>8.621411752746411</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>86.24912230435832</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.326593960939361</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>14.68975157073199</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>25.46014348031223</v>
       </c>
       <c r="S36" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V36" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="W36" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>1.702362769826067</v>
       </c>
       <c r="R37" t="n">
-        <v>131.9413579754411</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.1479483760445</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>200.1479483760445</v>
+        <v>174.5879501597939</v>
       </c>
       <c r="U37" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X37" t="n">
-        <v>42.64659218435285</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>157.7804284938809</v>
       </c>
       <c r="T38" t="n">
-        <v>9.888472682992635</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>86.2491223043581</v>
       </c>
       <c r="V38" t="n">
         <v>200.1479483760444</v>
       </c>
       <c r="W38" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>6.326593960939252</v>
+        <v>2.239995910299065</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>100.6160379875227</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>47.97413555148589</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>25.46014348031223</v>
       </c>
       <c r="S39" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>200.1479483760444</v>
@@ -3644,7 +3644,7 @@
         <v>200.1479483760444</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3705,28 +3705,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.702362769826067</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>131.9413579754411</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>200.1479483760444</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
+        <v>196.6062811237269</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>200.1479483760444</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>42.6465921843528</v>
-      </c>
-      <c r="W40" t="n">
-        <v>200.1479483760444</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>176.29031292962</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>8.621411752746411</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V41" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>167.6689011768734</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>200.1479483760446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H42" t="n">
-        <v>100.6160379875227</v>
+        <v>14.68975157073189</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.46014348031223</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X42" t="n">
-        <v>191.8072250386641</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>129.5369622331495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>46.28844533568854</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9823413329452</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.2594635169644</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>8.621411752746411</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>200.1479483760444</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>43.88160242219458</v>
       </c>
       <c r="W44" t="n">
-        <v>176.2903129296198</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>133.4645817808622</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.1404178785758</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.6160379875227</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.46014348031223</v>
       </c>
       <c r="S45" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>21.85533237727538</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>30.86926490668857</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>82.88088786633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.702362769826067</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.1479483760444</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>387.5440071356573</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="C11" t="n">
-        <v>387.5440071356573</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="D11" t="n">
-        <v>387.5440071356573</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="E11" t="n">
-        <v>387.5440071356573</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="F11" t="n">
-        <v>343.2191562041475</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="G11" t="n">
-        <v>141.0495113798601</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="H11" t="n">
-        <v>141.0495113798601</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I11" t="n">
         <v>16.01183587008356</v>
       </c>
       <c r="J11" t="n">
-        <v>25.71381148713644</v>
+        <v>25.7138114871363</v>
       </c>
       <c r="K11" t="n">
-        <v>90.99307620534634</v>
+        <v>90.99307620534631</v>
       </c>
       <c r="L11" t="n">
         <v>208.8795383336699</v>
       </c>
       <c r="M11" t="n">
-        <v>371.7203791850238</v>
+        <v>371.7203791850239</v>
       </c>
       <c r="N11" t="n">
         <v>541.8099634650434</v>
@@ -5074,19 +5074,19 @@
         <v>791.8832967842319</v>
       </c>
       <c r="U11" t="n">
-        <v>791.8832967842319</v>
+        <v>589.7136519599446</v>
       </c>
       <c r="V11" t="n">
-        <v>589.7136519599446</v>
+        <v>387.5440071356573</v>
       </c>
       <c r="W11" t="n">
-        <v>589.7136519599446</v>
+        <v>185.37436231137</v>
       </c>
       <c r="X11" t="n">
-        <v>387.5440071356573</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="Y11" t="n">
-        <v>387.5440071356573</v>
+        <v>16.01183587008356</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4221486798904</v>
+        <v>370.5351872088232</v>
       </c>
       <c r="C12" t="n">
-        <v>598.4221486798904</v>
+        <v>370.5351872088232</v>
       </c>
       <c r="D12" t="n">
-        <v>471.8749332314911</v>
+        <v>370.5351872088232</v>
       </c>
       <c r="E12" t="n">
-        <v>312.6374782260356</v>
+        <v>348.5206902372003</v>
       </c>
       <c r="F12" t="n">
-        <v>166.1029202529205</v>
+        <v>201.9861322640852</v>
       </c>
       <c r="G12" t="n">
-        <v>166.1029202529205</v>
+        <v>64.47055864936223</v>
       </c>
       <c r="H12" t="n">
         <v>64.47055864936223</v>
@@ -5120,16 +5120,16 @@
         <v>16.01183587008356</v>
       </c>
       <c r="J12" t="n">
-        <v>31.97419600362948</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="K12" t="n">
-        <v>87.84258062418321</v>
+        <v>71.88022049063729</v>
       </c>
       <c r="L12" t="n">
-        <v>209.2870594885618</v>
+        <v>193.3246993550159</v>
       </c>
       <c r="M12" t="n">
-        <v>370.363906329552</v>
+        <v>354.4015461960061</v>
       </c>
       <c r="N12" t="n">
         <v>550.112622923054</v>
@@ -5144,28 +5144,28 @@
         <v>800.5917935041778</v>
       </c>
       <c r="R12" t="n">
-        <v>800.5917935041778</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="S12" t="n">
-        <v>800.5917935041778</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="T12" t="n">
-        <v>800.5917935041778</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="U12" t="n">
-        <v>800.5917935041778</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="V12" t="n">
-        <v>800.5917935041778</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="W12" t="n">
-        <v>800.5917935041778</v>
+        <v>572.7048320331105</v>
       </c>
       <c r="X12" t="n">
-        <v>598.4221486798904</v>
+        <v>370.5351872088232</v>
       </c>
       <c r="Y12" t="n">
-        <v>598.4221486798904</v>
+        <v>370.5351872088232</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>354.1091498442476</v>
+        <v>353.6170504474301</v>
       </c>
       <c r="C13" t="n">
-        <v>185.1729669163406</v>
+        <v>184.6808675195232</v>
       </c>
       <c r="D13" t="n">
-        <v>185.1729669163406</v>
+        <v>184.6808675195232</v>
       </c>
       <c r="E13" t="n">
-        <v>185.1729669163406</v>
+        <v>184.6808675195232</v>
       </c>
       <c r="F13" t="n">
-        <v>38.28301941843024</v>
+        <v>184.6808675195232</v>
       </c>
       <c r="G13" t="n">
-        <v>38.28301941843024</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="H13" t="n">
-        <v>38.28301941843024</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="I13" t="n">
-        <v>38.28301941843024</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="J13" t="n">
         <v>16.01183587008356</v>
       </c>
       <c r="K13" t="n">
-        <v>109.9785846570306</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="L13" t="n">
-        <v>124.9001515618454</v>
+        <v>191.7833573010372</v>
       </c>
       <c r="M13" t="n">
-        <v>320.6156990194423</v>
+        <v>320.5392387813096</v>
       </c>
       <c r="N13" t="n">
         <v>517.0357243879756</v>
@@ -5223,28 +5223,28 @@
         <v>800.5917935041778</v>
       </c>
       <c r="R13" t="n">
-        <v>800.5917935041778</v>
+        <v>737.4351601019571</v>
       </c>
       <c r="S13" t="n">
-        <v>800.5917935041778</v>
+        <v>737.4351601019571</v>
       </c>
       <c r="T13" t="n">
-        <v>598.4221486798904</v>
+        <v>737.4351601019571</v>
       </c>
       <c r="U13" t="n">
-        <v>598.4221486798904</v>
+        <v>737.4351601019571</v>
       </c>
       <c r="V13" t="n">
-        <v>556.2787946685348</v>
+        <v>737.4351601019571</v>
       </c>
       <c r="W13" t="n">
-        <v>556.2787946685348</v>
+        <v>737.4351601019571</v>
       </c>
       <c r="X13" t="n">
-        <v>354.1091498442476</v>
+        <v>737.4351601019571</v>
       </c>
       <c r="Y13" t="n">
-        <v>354.1091498442476</v>
+        <v>535.2655152776698</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>218.1814806943709</v>
       </c>
       <c r="G14" t="n">
-        <v>218.1814806943709</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="H14" t="n">
         <v>16.01183587008356</v>
@@ -5308,19 +5308,19 @@
         <v>800.591793504178</v>
       </c>
       <c r="T14" t="n">
-        <v>800.591793504178</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="U14" t="n">
-        <v>598.4221486798906</v>
+        <v>420.3511255186584</v>
       </c>
       <c r="V14" t="n">
         <v>420.3511255186584</v>
       </c>
       <c r="W14" t="n">
-        <v>420.3511255186584</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="X14" t="n">
-        <v>420.3511255186584</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="Y14" t="n">
         <v>218.1814806943709</v>
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>349.7023201566661</v>
+        <v>190.4648651512106</v>
       </c>
       <c r="C15" t="n">
-        <v>175.2492908755391</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="D15" t="n">
-        <v>175.2492908755391</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="E15" t="n">
         <v>16.01183587008356</v>
@@ -5369,13 +5369,13 @@
         <v>354.4015461960061</v>
       </c>
       <c r="N15" t="n">
-        <v>550.1126229230542</v>
+        <v>534.1502627895081</v>
       </c>
       <c r="O15" t="n">
-        <v>692.3277866452154</v>
+        <v>676.3654265116693</v>
       </c>
       <c r="P15" t="n">
-        <v>787.1349271992798</v>
+        <v>771.1725670657337</v>
       </c>
       <c r="Q15" t="n">
         <v>800.591793504178</v>
@@ -5384,25 +5384,25 @@
         <v>800.591793504178</v>
       </c>
       <c r="S15" t="n">
-        <v>754.0416098052408</v>
+        <v>800.591793504178</v>
       </c>
       <c r="T15" t="n">
-        <v>754.0416098052408</v>
+        <v>603.3035164359525</v>
       </c>
       <c r="U15" t="n">
-        <v>551.8719649809534</v>
+        <v>594.8041547997854</v>
       </c>
       <c r="V15" t="n">
-        <v>551.8719649809534</v>
+        <v>594.8041547997854</v>
       </c>
       <c r="W15" t="n">
-        <v>349.7023201566661</v>
+        <v>392.634509975498</v>
       </c>
       <c r="X15" t="n">
-        <v>349.7023201566661</v>
+        <v>392.634509975498</v>
       </c>
       <c r="Y15" t="n">
-        <v>349.7023201566661</v>
+        <v>190.4648651512106</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>331.8379662959009</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="C16" t="n">
-        <v>162.9017833679939</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="D16" t="n">
-        <v>162.9017833679939</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="E16" t="n">
-        <v>162.9017833679939</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="F16" t="n">
         <v>16.01183587008356</v>
@@ -5442,16 +5442,16 @@
         <v>109.9785846570306</v>
       </c>
       <c r="L16" t="n">
-        <v>124.9001515618454</v>
+        <v>285.7501060879842</v>
       </c>
       <c r="M16" t="n">
-        <v>320.5392387813098</v>
+        <v>481.4656535455812</v>
       </c>
       <c r="N16" t="n">
-        <v>517.0357243879758</v>
+        <v>635.1117806831135</v>
       </c>
       <c r="O16" t="n">
-        <v>682.5157372090404</v>
+        <v>800.591793504178</v>
       </c>
       <c r="P16" t="n">
         <v>800.591793504178</v>
@@ -5463,25 +5463,25 @@
         <v>798.8722351508184</v>
       </c>
       <c r="S16" t="n">
-        <v>596.702590326531</v>
+        <v>622.5207703429458</v>
       </c>
       <c r="T16" t="n">
-        <v>596.702590326531</v>
+        <v>420.3511255186584</v>
       </c>
       <c r="U16" t="n">
-        <v>534.0076111201882</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="V16" t="n">
-        <v>534.0076111201882</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="W16" t="n">
-        <v>534.0076111201882</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="X16" t="n">
-        <v>534.0076111201882</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="Y16" t="n">
-        <v>331.8379662959009</v>
+        <v>16.01183587008356</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>420.3511255186585</v>
+        <v>598.4221486798903</v>
       </c>
       <c r="C17" t="n">
-        <v>218.181480694371</v>
+        <v>598.4221486798903</v>
       </c>
       <c r="D17" t="n">
-        <v>218.181480694371</v>
+        <v>396.252503855603</v>
       </c>
       <c r="E17" t="n">
-        <v>218.181480694371</v>
+        <v>396.252503855603</v>
       </c>
       <c r="F17" t="n">
-        <v>218.181480694371</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="G17" t="n">
-        <v>218.181480694371</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="H17" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I17" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J17" t="n">
-        <v>25.7138114871365</v>
+        <v>25.71381148713644</v>
       </c>
       <c r="K17" t="n">
-        <v>90.99307620534645</v>
+        <v>90.99307620534634</v>
       </c>
       <c r="L17" t="n">
-        <v>208.87953833367</v>
+        <v>208.8795383336699</v>
       </c>
       <c r="M17" t="n">
-        <v>371.7203791850242</v>
+        <v>371.7203791850238</v>
       </c>
       <c r="N17" t="n">
-        <v>541.8099634650437</v>
+        <v>541.8099634650433</v>
       </c>
       <c r="O17" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804527</v>
       </c>
       <c r="P17" t="n">
-        <v>780.2807130803026</v>
+        <v>780.280713080302</v>
       </c>
       <c r="Q17" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="R17" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="S17" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="T17" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="U17" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="V17" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="W17" t="n">
-        <v>800.5917935041782</v>
+        <v>598.4221486798903</v>
       </c>
       <c r="X17" t="n">
-        <v>622.520770342946</v>
+        <v>598.4221486798903</v>
       </c>
       <c r="Y17" t="n">
-        <v>420.3511255186585</v>
+        <v>598.4221486798903</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>232.9185345915972</v>
+        <v>324.1837005367903</v>
       </c>
       <c r="C18" t="n">
-        <v>232.9185345915972</v>
+        <v>324.1837005367903</v>
       </c>
       <c r="D18" t="n">
-        <v>83.98412493034596</v>
+        <v>175.2492908755391</v>
       </c>
       <c r="E18" t="n">
-        <v>83.98412493034596</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="F18" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="G18" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="H18" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I18" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J18" t="n">
-        <v>31.97419600362939</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="K18" t="n">
-        <v>87.84258062418316</v>
+        <v>71.88022049063729</v>
       </c>
       <c r="L18" t="n">
-        <v>209.2870594885618</v>
+        <v>193.3246993550159</v>
       </c>
       <c r="M18" t="n">
-        <v>370.3639063295521</v>
+        <v>354.4015461960061</v>
       </c>
       <c r="N18" t="n">
-        <v>550.1126229230541</v>
+        <v>534.1502627895081</v>
       </c>
       <c r="O18" t="n">
-        <v>692.3277866452154</v>
+        <v>676.3654265116693</v>
       </c>
       <c r="P18" t="n">
-        <v>787.1349271992799</v>
+        <v>771.1725670657337</v>
       </c>
       <c r="Q18" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="R18" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="S18" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="T18" t="n">
-        <v>603.3035164359527</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="U18" t="n">
-        <v>401.1338716116653</v>
+        <v>728.5229901853648</v>
       </c>
       <c r="V18" t="n">
-        <v>401.1338716116653</v>
+        <v>728.5229901853648</v>
       </c>
       <c r="W18" t="n">
-        <v>401.1338716116653</v>
+        <v>526.3533453610776</v>
       </c>
       <c r="X18" t="n">
-        <v>401.1338716116653</v>
+        <v>526.3533453610776</v>
       </c>
       <c r="Y18" t="n">
-        <v>401.1338716116653</v>
+        <v>324.1837005367903</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.01183587008357</v>
+        <v>212.8844806720037</v>
       </c>
       <c r="C19" t="n">
-        <v>16.01183587008357</v>
+        <v>212.8844806720037</v>
       </c>
       <c r="D19" t="n">
-        <v>16.01183587008357</v>
+        <v>62.76784125966793</v>
       </c>
       <c r="E19" t="n">
-        <v>16.01183587008357</v>
+        <v>62.76784125966793</v>
       </c>
       <c r="F19" t="n">
-        <v>16.01183587008357</v>
+        <v>62.76784125966793</v>
       </c>
       <c r="G19" t="n">
-        <v>16.01183587008357</v>
+        <v>62.76784125966793</v>
       </c>
       <c r="H19" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I19" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J19" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="K19" t="n">
-        <v>109.9785846570306</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="L19" t="n">
-        <v>285.7501060879844</v>
+        <v>191.7833573010372</v>
       </c>
       <c r="M19" t="n">
-        <v>481.4656535455813</v>
+        <v>387.4989047586341</v>
       </c>
       <c r="N19" t="n">
-        <v>517.035724387976</v>
+        <v>583.9953903653002</v>
       </c>
       <c r="O19" t="n">
-        <v>682.5157372090406</v>
+        <v>749.4754031863647</v>
       </c>
       <c r="P19" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="Q19" t="n">
-        <v>798.8722351508186</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="R19" t="n">
-        <v>798.8722351508186</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="S19" t="n">
-        <v>798.8722351508186</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="T19" t="n">
-        <v>622.520770342946</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="U19" t="n">
-        <v>420.3511255186585</v>
+        <v>596.7025903265306</v>
       </c>
       <c r="V19" t="n">
-        <v>218.181480694371</v>
+        <v>596.7025903265306</v>
       </c>
       <c r="W19" t="n">
-        <v>16.01183587008357</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="X19" t="n">
-        <v>16.01183587008357</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.01183587008357</v>
+        <v>394.5329455022434</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218.1814806943709</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="C20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="D20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="E20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="F20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="G20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="H20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I20" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J20" t="n">
-        <v>25.71381148713635</v>
+        <v>25.7138114871363</v>
       </c>
       <c r="K20" t="n">
-        <v>90.99307620534682</v>
+        <v>90.99307620534631</v>
       </c>
       <c r="L20" t="n">
-        <v>208.8795383336703</v>
+        <v>208.8795383336699</v>
       </c>
       <c r="M20" t="n">
-        <v>371.7203791850243</v>
+        <v>371.7203791850239</v>
       </c>
       <c r="N20" t="n">
-        <v>541.8099634650438</v>
+        <v>541.809963465043</v>
       </c>
       <c r="O20" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804524</v>
       </c>
       <c r="P20" t="n">
-        <v>780.2807130803025</v>
+        <v>780.2807130803018</v>
       </c>
       <c r="Q20" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041773</v>
       </c>
       <c r="R20" t="n">
-        <v>791.8832967842321</v>
+        <v>791.8832967842314</v>
       </c>
       <c r="S20" t="n">
-        <v>632.5091265883929</v>
+        <v>791.8832967842314</v>
       </c>
       <c r="T20" t="n">
-        <v>430.3394817641055</v>
+        <v>589.7136519599442</v>
       </c>
       <c r="U20" t="n">
-        <v>420.3511255186584</v>
+        <v>420.351125518658</v>
       </c>
       <c r="V20" t="n">
-        <v>218.1814806943709</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="W20" t="n">
-        <v>218.1814806943709</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="X20" t="n">
-        <v>218.1814806943709</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.1814806943709</v>
+        <v>16.01183587008355</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>190.4648651512106</v>
+        <v>22.40233482052702</v>
       </c>
       <c r="C21" t="n">
-        <v>16.01183587008356</v>
+        <v>22.40233482052702</v>
       </c>
       <c r="D21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="E21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="F21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="G21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="H21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J21" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="K21" t="n">
-        <v>71.8802204906373</v>
+        <v>87.84258062418276</v>
       </c>
       <c r="L21" t="n">
-        <v>193.3246993550159</v>
+        <v>209.2870594885613</v>
       </c>
       <c r="M21" t="n">
-        <v>354.4015461960061</v>
+        <v>370.3639063295516</v>
       </c>
       <c r="N21" t="n">
-        <v>550.1126229230542</v>
+        <v>550.1126229230536</v>
       </c>
       <c r="O21" t="n">
-        <v>692.3277866452154</v>
+        <v>692.3277866452147</v>
       </c>
       <c r="P21" t="n">
-        <v>787.1349271992798</v>
+        <v>787.1349271992791</v>
       </c>
       <c r="Q21" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041773</v>
       </c>
       <c r="R21" t="n">
-        <v>774.874476857398</v>
+        <v>774.8744768573973</v>
       </c>
       <c r="S21" t="n">
-        <v>774.874476857398</v>
+        <v>624.029901537327</v>
       </c>
       <c r="T21" t="n">
-        <v>577.5861997891725</v>
+        <v>426.7416244691015</v>
       </c>
       <c r="U21" t="n">
-        <v>560.8498469955659</v>
+        <v>426.7416244691015</v>
       </c>
       <c r="V21" t="n">
-        <v>358.6802021712786</v>
+        <v>224.5719796448142</v>
       </c>
       <c r="W21" t="n">
-        <v>358.6802021712786</v>
+        <v>22.40233482052702</v>
       </c>
       <c r="X21" t="n">
-        <v>358.6802021712786</v>
+        <v>22.40233482052702</v>
       </c>
       <c r="Y21" t="n">
-        <v>358.6802021712786</v>
+        <v>22.40233482052702</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.01183587008356</v>
+        <v>339.7555577040151</v>
       </c>
       <c r="C22" t="n">
-        <v>16.01183587008356</v>
+        <v>170.8193747761082</v>
       </c>
       <c r="D22" t="n">
-        <v>16.01183587008356</v>
+        <v>170.8193747761082</v>
       </c>
       <c r="E22" t="n">
-        <v>16.01183587008356</v>
+        <v>170.8193747761082</v>
       </c>
       <c r="F22" t="n">
-        <v>16.01183587008356</v>
+        <v>170.8193747761082</v>
       </c>
       <c r="G22" t="n">
-        <v>16.01183587008356</v>
+        <v>170.8193747761082</v>
       </c>
       <c r="H22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J22" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="K22" t="n">
-        <v>109.9021244188981</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="L22" t="n">
-        <v>124.8236913237129</v>
+        <v>191.7833573010372</v>
       </c>
       <c r="M22" t="n">
-        <v>320.5392387813098</v>
+        <v>387.4989047586341</v>
       </c>
       <c r="N22" t="n">
-        <v>517.0357243879758</v>
+        <v>583.9953903653002</v>
       </c>
       <c r="O22" t="n">
-        <v>682.5157372090404</v>
+        <v>749.4754031863647</v>
       </c>
       <c r="P22" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041773</v>
       </c>
       <c r="Q22" t="n">
-        <v>798.8722351508184</v>
+        <v>800.5917935041773</v>
       </c>
       <c r="R22" t="n">
-        <v>665.5981361857264</v>
+        <v>800.5917935041773</v>
       </c>
       <c r="S22" t="n">
-        <v>665.5981361857264</v>
+        <v>598.4221486798901</v>
       </c>
       <c r="T22" t="n">
-        <v>463.428491361439</v>
+        <v>598.4221486798901</v>
       </c>
       <c r="U22" t="n">
-        <v>261.2588465371516</v>
+        <v>598.4221486798901</v>
       </c>
       <c r="V22" t="n">
-        <v>218.1814806943709</v>
+        <v>598.4221486798901</v>
       </c>
       <c r="W22" t="n">
-        <v>218.1814806943709</v>
+        <v>598.4221486798901</v>
       </c>
       <c r="X22" t="n">
-        <v>218.1814806943709</v>
+        <v>521.4040225342548</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.01183587008356</v>
+        <v>521.4040225342548</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>420.3511255186583</v>
+        <v>228.169836939818</v>
       </c>
       <c r="C23" t="n">
-        <v>420.3511255186583</v>
+        <v>228.169836939818</v>
       </c>
       <c r="D23" t="n">
-        <v>218.1814806943709</v>
+        <v>228.169836939818</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1814806943709</v>
+        <v>228.169836939818</v>
       </c>
       <c r="F23" t="n">
-        <v>218.1814806943709</v>
+        <v>228.169836939818</v>
       </c>
       <c r="G23" t="n">
-        <v>218.1814806943709</v>
+        <v>228.169836939818</v>
       </c>
       <c r="H23" t="n">
-        <v>16.01183587008356</v>
+        <v>26.00019211553064</v>
       </c>
       <c r="I23" t="n">
         <v>16.01183587008356</v>
@@ -6013,28 +6013,28 @@
         <v>800.5917935041778</v>
       </c>
       <c r="R23" t="n">
-        <v>800.5917935041778</v>
+        <v>791.8832967842319</v>
       </c>
       <c r="S23" t="n">
-        <v>800.5917935041778</v>
+        <v>632.5091265883926</v>
       </c>
       <c r="T23" t="n">
-        <v>800.5917935041778</v>
+        <v>430.3394817641053</v>
       </c>
       <c r="U23" t="n">
-        <v>800.5917935041778</v>
+        <v>228.169836939818</v>
       </c>
       <c r="V23" t="n">
-        <v>800.5917935041778</v>
+        <v>228.169836939818</v>
       </c>
       <c r="W23" t="n">
-        <v>800.5917935041778</v>
+        <v>228.169836939818</v>
       </c>
       <c r="X23" t="n">
-        <v>622.5207703429455</v>
+        <v>228.169836939818</v>
       </c>
       <c r="Y23" t="n">
-        <v>622.5207703429455</v>
+        <v>228.169836939818</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="C24" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="D24" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="E24" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="F24" t="n">
-        <v>16.01183587008356</v>
+        <v>153.5274094848066</v>
       </c>
       <c r="G24" t="n">
         <v>16.01183587008356</v>
@@ -6080,13 +6080,13 @@
         <v>354.4015461960061</v>
       </c>
       <c r="N24" t="n">
-        <v>550.112622923054</v>
+        <v>534.1502627895081</v>
       </c>
       <c r="O24" t="n">
-        <v>692.3277866452152</v>
+        <v>676.3654265116693</v>
       </c>
       <c r="P24" t="n">
-        <v>787.1349271992796</v>
+        <v>771.1725670657337</v>
       </c>
       <c r="Q24" t="n">
         <v>800.5917935041778</v>
@@ -6095,25 +6095,25 @@
         <v>774.8744768573978</v>
       </c>
       <c r="S24" t="n">
-        <v>624.0299015373274</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="T24" t="n">
-        <v>426.7416244691019</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="U24" t="n">
-        <v>426.7416244691019</v>
+        <v>572.7048320331105</v>
       </c>
       <c r="V24" t="n">
-        <v>420.3511255186583</v>
+        <v>370.5351872088232</v>
       </c>
       <c r="W24" t="n">
-        <v>218.1814806943709</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="X24" t="n">
-        <v>218.1814806943709</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.9249294524767</v>
+        <v>290.3067260879176</v>
       </c>
       <c r="C25" t="n">
-        <v>163.9249294524767</v>
+        <v>290.3067260879176</v>
       </c>
       <c r="D25" t="n">
-        <v>163.9249294524767</v>
+        <v>290.3067260879176</v>
       </c>
       <c r="E25" t="n">
-        <v>16.01183587008356</v>
+        <v>142.3936325055245</v>
       </c>
       <c r="F25" t="n">
-        <v>16.01183587008356</v>
+        <v>142.3936325055245</v>
       </c>
       <c r="G25" t="n">
-        <v>16.01183587008356</v>
+        <v>142.3936325055245</v>
       </c>
       <c r="H25" t="n">
-        <v>16.01183587008356</v>
+        <v>142.3936325055245</v>
       </c>
       <c r="I25" t="n">
         <v>16.01183587008356</v>
@@ -6150,19 +6150,19 @@
         <v>16.01183587008356</v>
       </c>
       <c r="K25" t="n">
-        <v>109.9785846570306</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="L25" t="n">
-        <v>285.7501060879842</v>
+        <v>191.7833573010372</v>
       </c>
       <c r="M25" t="n">
-        <v>481.4656535455812</v>
+        <v>387.4989047586341</v>
       </c>
       <c r="N25" t="n">
-        <v>677.9621391522472</v>
+        <v>583.9953903653002</v>
       </c>
       <c r="O25" t="n">
-        <v>682.5157372090401</v>
+        <v>749.4754031863647</v>
       </c>
       <c r="P25" t="n">
         <v>800.5917935041778</v>
@@ -6171,28 +6171,28 @@
         <v>798.8722351508181</v>
       </c>
       <c r="R25" t="n">
-        <v>798.8722351508181</v>
+        <v>665.5981361857262</v>
       </c>
       <c r="S25" t="n">
-        <v>798.8722351508181</v>
+        <v>492.4763709122049</v>
       </c>
       <c r="T25" t="n">
-        <v>596.7025903265308</v>
+        <v>492.4763709122049</v>
       </c>
       <c r="U25" t="n">
-        <v>568.2642191010514</v>
+        <v>492.4763709122049</v>
       </c>
       <c r="V25" t="n">
-        <v>366.094574276764</v>
+        <v>492.4763709122049</v>
       </c>
       <c r="W25" t="n">
-        <v>366.094574276764</v>
+        <v>492.4763709122049</v>
       </c>
       <c r="X25" t="n">
-        <v>366.094574276764</v>
+        <v>492.4763709122049</v>
       </c>
       <c r="Y25" t="n">
-        <v>163.9249294524767</v>
+        <v>290.3067260879176</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.70868883547649</v>
+        <v>598.4221486798908</v>
       </c>
       <c r="C26" t="n">
-        <v>34.70868883547649</v>
+        <v>598.4221486798908</v>
       </c>
       <c r="D26" t="n">
-        <v>34.70868883547649</v>
+        <v>598.4221486798908</v>
       </c>
       <c r="E26" t="n">
-        <v>34.70868883547649</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="F26" t="n">
-        <v>34.70868883547649</v>
+        <v>218.181480694371</v>
       </c>
       <c r="G26" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H26" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I26" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J26" t="n">
-        <v>25.71381148713646</v>
+        <v>25.71381148713635</v>
       </c>
       <c r="K26" t="n">
-        <v>90.99307620534637</v>
+        <v>90.99307620534682</v>
       </c>
       <c r="L26" t="n">
-        <v>208.87953833367</v>
+        <v>208.8795383336704</v>
       </c>
       <c r="M26" t="n">
-        <v>371.7203791850241</v>
+        <v>371.7203791850245</v>
       </c>
       <c r="N26" t="n">
-        <v>541.8099634650437</v>
+        <v>541.8099634650441</v>
       </c>
       <c r="O26" t="n">
-        <v>689.0854734804528</v>
+        <v>689.0854734804534</v>
       </c>
       <c r="P26" t="n">
-        <v>780.2807130803022</v>
+        <v>780.2807130803027</v>
       </c>
       <c r="Q26" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="R26" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="S26" t="n">
-        <v>641.2176233083385</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="T26" t="n">
-        <v>641.2176233083385</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="U26" t="n">
-        <v>641.2176233083385</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="V26" t="n">
-        <v>439.0479784840512</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="W26" t="n">
-        <v>236.8783336597638</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="X26" t="n">
-        <v>236.8783336597638</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.70868883547649</v>
+        <v>598.4221486798908</v>
       </c>
     </row>
     <row r="27">
@@ -6290,25 +6290,25 @@
         <v>175.2492908755391</v>
       </c>
       <c r="E27" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F27" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G27" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H27" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I27" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J27" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K27" t="n">
-        <v>71.88022049063729</v>
+        <v>71.8802204906373</v>
       </c>
       <c r="L27" t="n">
         <v>193.3246993550159</v>
@@ -6317,40 +6317,40 @@
         <v>354.4015461960061</v>
       </c>
       <c r="N27" t="n">
-        <v>534.1502627895081</v>
+        <v>550.1126229230545</v>
       </c>
       <c r="O27" t="n">
-        <v>692.3277866452152</v>
+        <v>692.3277866452156</v>
       </c>
       <c r="P27" t="n">
-        <v>787.1349271992796</v>
+        <v>787.13492719928</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="R27" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="S27" t="n">
-        <v>649.7472181841074</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="T27" t="n">
-        <v>649.7472181841074</v>
+        <v>603.3035164359527</v>
       </c>
       <c r="U27" t="n">
-        <v>447.5775733598201</v>
+        <v>603.3035164359527</v>
       </c>
       <c r="V27" t="n">
-        <v>377.4189356998264</v>
+        <v>401.1338716116653</v>
       </c>
       <c r="W27" t="n">
-        <v>377.4189356998264</v>
+        <v>401.1338716116653</v>
       </c>
       <c r="X27" t="n">
-        <v>175.2492908755391</v>
+        <v>401.1338716116653</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.2492908755391</v>
+        <v>343.4646278956071</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.9249294524767</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="C28" t="n">
-        <v>163.9249294524767</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="D28" t="n">
-        <v>163.9249294524767</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="E28" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F28" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G28" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H28" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I28" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J28" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K28" t="n">
-        <v>109.9785846570306</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="L28" t="n">
-        <v>285.7501060879842</v>
+        <v>191.7833573010372</v>
       </c>
       <c r="M28" t="n">
-        <v>320.5392387813096</v>
+        <v>387.4989047586341</v>
       </c>
       <c r="N28" t="n">
-        <v>517.0357243879756</v>
+        <v>583.9953903653002</v>
       </c>
       <c r="O28" t="n">
-        <v>682.5157372090401</v>
+        <v>749.4754031863647</v>
       </c>
       <c r="P28" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="Q28" t="n">
-        <v>800.5917935041778</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="R28" t="n">
-        <v>667.3176945390858</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="S28" t="n">
-        <v>568.2642191010514</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="T28" t="n">
-        <v>366.094574276764</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="U28" t="n">
-        <v>366.094574276764</v>
+        <v>596.7025903265312</v>
       </c>
       <c r="V28" t="n">
-        <v>366.094574276764</v>
+        <v>596.7025903265312</v>
       </c>
       <c r="W28" t="n">
-        <v>163.9249294524767</v>
+        <v>596.7025903265312</v>
       </c>
       <c r="X28" t="n">
-        <v>163.9249294524767</v>
+        <v>394.5329455022438</v>
       </c>
       <c r="Y28" t="n">
-        <v>163.9249294524767</v>
+        <v>192.3633006779563</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>439.0479784840512</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="C29" t="n">
-        <v>439.0479784840512</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="D29" t="n">
-        <v>236.8783336597638</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="E29" t="n">
-        <v>218.1814806943709</v>
+        <v>218.181480694371</v>
       </c>
       <c r="F29" t="n">
-        <v>218.1814806943709</v>
+        <v>218.181480694371</v>
       </c>
       <c r="G29" t="n">
-        <v>16.01183587008356</v>
+        <v>218.181480694371</v>
       </c>
       <c r="H29" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I29" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J29" t="n">
-        <v>25.71381148713646</v>
+        <v>25.71381148713672</v>
       </c>
       <c r="K29" t="n">
-        <v>90.99307620534637</v>
+        <v>90.99307620534664</v>
       </c>
       <c r="L29" t="n">
-        <v>208.87953833367</v>
+        <v>208.8795383336702</v>
       </c>
       <c r="M29" t="n">
-        <v>371.7203791850241</v>
+        <v>371.7203791850243</v>
       </c>
       <c r="N29" t="n">
-        <v>541.8099634650437</v>
+        <v>541.8099634650439</v>
       </c>
       <c r="O29" t="n">
-        <v>689.0854734804531</v>
+        <v>689.0854734804533</v>
       </c>
       <c r="P29" t="n">
-        <v>780.2807130803022</v>
+        <v>780.2807130803027</v>
       </c>
       <c r="Q29" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="R29" t="n">
-        <v>800.5917935041778</v>
+        <v>791.8832967842324</v>
       </c>
       <c r="S29" t="n">
-        <v>641.2176233083385</v>
+        <v>791.8832967842324</v>
       </c>
       <c r="T29" t="n">
-        <v>641.2176233083385</v>
+        <v>791.8832967842324</v>
       </c>
       <c r="U29" t="n">
-        <v>641.2176233083385</v>
+        <v>791.8832967842324</v>
       </c>
       <c r="V29" t="n">
-        <v>641.2176233083385</v>
+        <v>589.7136519599449</v>
       </c>
       <c r="W29" t="n">
-        <v>439.0479784840512</v>
+        <v>589.7136519599449</v>
       </c>
       <c r="X29" t="n">
-        <v>439.0479784840512</v>
+        <v>589.7136519599449</v>
       </c>
       <c r="Y29" t="n">
-        <v>439.0479784840512</v>
+        <v>420.3511255186585</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="C30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="D30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="E30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K30" t="n">
-        <v>71.88022049063729</v>
+        <v>71.8802204906373</v>
       </c>
       <c r="L30" t="n">
         <v>193.3246993550159</v>
@@ -6557,37 +6557,37 @@
         <v>534.1502627895081</v>
       </c>
       <c r="O30" t="n">
-        <v>692.3277866452152</v>
+        <v>676.3654265116693</v>
       </c>
       <c r="P30" t="n">
-        <v>787.1349271992796</v>
+        <v>771.1725670657337</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="R30" t="n">
-        <v>774.8744768573978</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="S30" t="n">
-        <v>624.0299015373274</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="T30" t="n">
-        <v>426.7416244691019</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="U30" t="n">
-        <v>224.5719796448146</v>
+        <v>622.520770342946</v>
       </c>
       <c r="V30" t="n">
-        <v>22.40233482052724</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="W30" t="n">
-        <v>22.40233482052724</v>
+        <v>218.181480694371</v>
       </c>
       <c r="X30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.9480187979905</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="C31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="D31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="E31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K31" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="L31" t="n">
         <v>191.7833573010372</v>
@@ -6633,40 +6633,40 @@
         <v>387.4989047586341</v>
       </c>
       <c r="N31" t="n">
-        <v>517.0357243879756</v>
+        <v>583.9953903653002</v>
       </c>
       <c r="O31" t="n">
-        <v>682.5157372090401</v>
+        <v>749.4754031863647</v>
       </c>
       <c r="P31" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="Q31" t="n">
-        <v>798.8722351508181</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="R31" t="n">
-        <v>665.5981361857262</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="S31" t="n">
-        <v>665.5981361857262</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="T31" t="n">
-        <v>665.5981361857262</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="U31" t="n">
-        <v>463.4284913614388</v>
+        <v>798.8722351508186</v>
       </c>
       <c r="V31" t="n">
-        <v>387.1176636222778</v>
+        <v>596.7025903265312</v>
       </c>
       <c r="W31" t="n">
-        <v>387.1176636222778</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="X31" t="n">
-        <v>184.9480187979905</v>
+        <v>218.181480694371</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.9480187979905</v>
+        <v>16.01183587008357</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>16.01183587008357</v>
+      </c>
+      <c r="C32" t="n">
+        <v>16.01183587008357</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16.01183587008357</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16.01183587008357</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16.01183587008357</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16.01183587008357</v>
+      </c>
+      <c r="H32" t="n">
+        <v>16.01183587008357</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16.01183587008357</v>
+      </c>
+      <c r="J32" t="n">
+        <v>25.71381148713672</v>
+      </c>
+      <c r="K32" t="n">
+        <v>90.99307620534664</v>
+      </c>
+      <c r="L32" t="n">
+        <v>208.8795383336702</v>
+      </c>
+      <c r="M32" t="n">
+        <v>371.7203791850243</v>
+      </c>
+      <c r="N32" t="n">
+        <v>541.8099634650439</v>
+      </c>
+      <c r="O32" t="n">
+        <v>689.0854734804533</v>
+      </c>
+      <c r="P32" t="n">
+        <v>780.2807130803027</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>800.5917935041782</v>
+      </c>
+      <c r="R32" t="n">
+        <v>791.8832967842324</v>
+      </c>
+      <c r="S32" t="n">
+        <v>791.8832967842324</v>
+      </c>
+      <c r="T32" t="n">
+        <v>791.8832967842324</v>
+      </c>
+      <c r="U32" t="n">
+        <v>589.7136519599449</v>
+      </c>
+      <c r="V32" t="n">
+        <v>387.5440071356574</v>
+      </c>
+      <c r="W32" t="n">
         <v>185.37436231137</v>
       </c>
-      <c r="C32" t="n">
-        <v>16.01183587008356</v>
-      </c>
-      <c r="D32" t="n">
-        <v>16.01183587008356</v>
-      </c>
-      <c r="E32" t="n">
-        <v>16.01183587008356</v>
-      </c>
-      <c r="F32" t="n">
-        <v>16.01183587008356</v>
-      </c>
-      <c r="G32" t="n">
-        <v>16.01183587008356</v>
-      </c>
-      <c r="H32" t="n">
-        <v>16.01183587008356</v>
-      </c>
-      <c r="I32" t="n">
-        <v>16.01183587008356</v>
-      </c>
-      <c r="J32" t="n">
-        <v>25.71381148713646</v>
-      </c>
-      <c r="K32" t="n">
-        <v>90.99307620534637</v>
-      </c>
-      <c r="L32" t="n">
-        <v>208.87953833367</v>
-      </c>
-      <c r="M32" t="n">
-        <v>371.7203791850241</v>
-      </c>
-      <c r="N32" t="n">
-        <v>541.8099634650437</v>
-      </c>
-      <c r="O32" t="n">
-        <v>689.0854734804531</v>
-      </c>
-      <c r="P32" t="n">
-        <v>780.2807130803022</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>800.5917935041778</v>
-      </c>
-      <c r="R32" t="n">
-        <v>791.8832967842319</v>
-      </c>
-      <c r="S32" t="n">
-        <v>791.8832967842319</v>
-      </c>
-      <c r="T32" t="n">
-        <v>791.8832967842319</v>
-      </c>
-      <c r="U32" t="n">
-        <v>589.7136519599446</v>
-      </c>
-      <c r="V32" t="n">
-        <v>387.5440071356573</v>
-      </c>
-      <c r="W32" t="n">
-        <v>387.5440071356573</v>
-      </c>
       <c r="X32" t="n">
-        <v>185.37436231137</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="Y32" t="n">
-        <v>185.37436231137</v>
+        <v>16.01183587008357</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>153.5274094848066</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="C33" t="n">
-        <v>153.5274094848066</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="D33" t="n">
-        <v>153.5274094848066</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="E33" t="n">
-        <v>153.5274094848066</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="F33" t="n">
-        <v>153.5274094848066</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="G33" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H33" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I33" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J33" t="n">
-        <v>31.97419600362948</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K33" t="n">
-        <v>87.84258062418321</v>
+        <v>71.8802204906373</v>
       </c>
       <c r="L33" t="n">
-        <v>209.2870594885618</v>
+        <v>193.3246993550159</v>
       </c>
       <c r="M33" t="n">
-        <v>370.363906329552</v>
+        <v>354.4015461960061</v>
       </c>
       <c r="N33" t="n">
-        <v>550.112622923054</v>
+        <v>534.1502627895081</v>
       </c>
       <c r="O33" t="n">
-        <v>692.3277866452152</v>
+        <v>676.3654265116693</v>
       </c>
       <c r="P33" t="n">
-        <v>787.1349271992796</v>
+        <v>771.1725670657337</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="R33" t="n">
-        <v>774.8744768573978</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="S33" t="n">
-        <v>624.0299015373274</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="T33" t="n">
-        <v>426.7416244691019</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="U33" t="n">
-        <v>355.6970543090939</v>
+        <v>622.520770342946</v>
       </c>
       <c r="V33" t="n">
-        <v>153.5274094848066</v>
+        <v>420.3511255186585</v>
       </c>
       <c r="W33" t="n">
-        <v>153.5274094848066</v>
+        <v>218.181480694371</v>
       </c>
       <c r="X33" t="n">
-        <v>153.5274094848066</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="Y33" t="n">
-        <v>153.5274094848066</v>
+        <v>16.01183587008357</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.01183587008356</v>
+        <v>396.2525038556034</v>
       </c>
       <c r="C34" t="n">
-        <v>16.01183587008356</v>
+        <v>396.2525038556034</v>
       </c>
       <c r="D34" t="n">
-        <v>16.01183587008356</v>
+        <v>396.2525038556034</v>
       </c>
       <c r="E34" t="n">
-        <v>16.01183587008356</v>
+        <v>248.3394102732103</v>
       </c>
       <c r="F34" t="n">
-        <v>16.01183587008356</v>
+        <v>101.4494627752999</v>
       </c>
       <c r="G34" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="H34" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="I34" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="J34" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="K34" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008357</v>
       </c>
       <c r="L34" t="n">
         <v>191.7833573010372</v>
       </c>
       <c r="M34" t="n">
-        <v>320.5392387813096</v>
+        <v>387.4989047586341</v>
       </c>
       <c r="N34" t="n">
-        <v>517.0357243879756</v>
+        <v>583.9953903653002</v>
       </c>
       <c r="O34" t="n">
-        <v>682.5157372090401</v>
+        <v>749.4754031863647</v>
       </c>
       <c r="P34" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="Q34" t="n">
-        <v>798.8722351508181</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="R34" t="n">
-        <v>665.5981361857262</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="S34" t="n">
-        <v>463.4284913614388</v>
+        <v>800.5917935041782</v>
       </c>
       <c r="T34" t="n">
-        <v>261.2588465371515</v>
+        <v>598.4221486798908</v>
       </c>
       <c r="U34" t="n">
-        <v>261.2588465371515</v>
+        <v>598.4221486798908</v>
       </c>
       <c r="V34" t="n">
-        <v>59.08920171286417</v>
+        <v>396.2525038556034</v>
       </c>
       <c r="W34" t="n">
-        <v>59.08920171286417</v>
+        <v>396.2525038556034</v>
       </c>
       <c r="X34" t="n">
-        <v>59.08920171286417</v>
+        <v>396.2525038556034</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.01183587008356</v>
+        <v>396.2525038556034</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>589.7136519599447</v>
+        <v>545.3888010284347</v>
       </c>
       <c r="C35" t="n">
-        <v>387.5440071356574</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="D35" t="n">
-        <v>387.5440071356574</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="E35" t="n">
-        <v>185.37436231137</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="F35" t="n">
-        <v>185.37436231137</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="G35" t="n">
-        <v>185.37436231137</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="H35" t="n">
-        <v>16.01183587008356</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="I35" t="n">
         <v>16.01183587008356</v>
       </c>
       <c r="J35" t="n">
-        <v>25.71381148713635</v>
+        <v>25.71381148713641</v>
       </c>
       <c r="K35" t="n">
-        <v>90.99307620534637</v>
+        <v>90.99307620534631</v>
       </c>
       <c r="L35" t="n">
         <v>208.8795383336699</v>
       </c>
       <c r="M35" t="n">
-        <v>371.7203791850243</v>
+        <v>371.7203791850238</v>
       </c>
       <c r="N35" t="n">
-        <v>541.8099634650438</v>
+        <v>541.8099634650434</v>
       </c>
       <c r="O35" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804528</v>
       </c>
       <c r="P35" t="n">
-        <v>780.2807130803025</v>
+        <v>780.2807130803022</v>
       </c>
       <c r="Q35" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041778</v>
       </c>
       <c r="R35" t="n">
-        <v>791.8832967842321</v>
+        <v>791.8832967842319</v>
       </c>
       <c r="S35" t="n">
-        <v>791.8832967842321</v>
+        <v>632.5091265883926</v>
       </c>
       <c r="T35" t="n">
-        <v>791.8832967842321</v>
+        <v>632.5091265883926</v>
       </c>
       <c r="U35" t="n">
-        <v>589.7136519599447</v>
+        <v>632.5091265883926</v>
       </c>
       <c r="V35" t="n">
-        <v>589.7136519599447</v>
+        <v>632.5091265883926</v>
       </c>
       <c r="W35" t="n">
-        <v>589.7136519599447</v>
+        <v>545.3888010284347</v>
       </c>
       <c r="X35" t="n">
-        <v>589.7136519599447</v>
+        <v>545.3888010284347</v>
       </c>
       <c r="Y35" t="n">
-        <v>589.7136519599447</v>
+        <v>545.3888010284347</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="C36" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="D36" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="E36" t="n">
-        <v>16.01183587008356</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="F36" t="n">
-        <v>16.01183587008356</v>
+        <v>153.5274094848066</v>
       </c>
       <c r="G36" t="n">
         <v>16.01183587008356</v>
@@ -7019,7 +7019,7 @@
         <v>16.01183587008356</v>
       </c>
       <c r="K36" t="n">
-        <v>71.8802204906373</v>
+        <v>71.88022049063729</v>
       </c>
       <c r="L36" t="n">
         <v>193.3246993550159</v>
@@ -7028,40 +7028,40 @@
         <v>354.4015461960061</v>
       </c>
       <c r="N36" t="n">
-        <v>534.1502627895081</v>
+        <v>550.112622923054</v>
       </c>
       <c r="O36" t="n">
-        <v>676.3654265116693</v>
+        <v>692.3277866452152</v>
       </c>
       <c r="P36" t="n">
-        <v>787.1349271992798</v>
+        <v>787.1349271992796</v>
       </c>
       <c r="Q36" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041778</v>
       </c>
       <c r="R36" t="n">
-        <v>774.874476857398</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="S36" t="n">
-        <v>624.0299015373276</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="T36" t="n">
-        <v>426.7416244691021</v>
+        <v>774.8744768573978</v>
       </c>
       <c r="U36" t="n">
-        <v>426.7416244691021</v>
+        <v>572.7048320331105</v>
       </c>
       <c r="V36" t="n">
-        <v>224.5719796448147</v>
+        <v>370.5351872088232</v>
       </c>
       <c r="W36" t="n">
-        <v>22.40233482052736</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="X36" t="n">
-        <v>22.40233482052736</v>
+        <v>168.3655423845358</v>
       </c>
       <c r="Y36" t="n">
-        <v>22.40233482052736</v>
+        <v>168.3655423845358</v>
       </c>
     </row>
     <row r="37">
@@ -7098,43 +7098,43 @@
         <v>16.01183587008356</v>
       </c>
       <c r="K37" t="n">
-        <v>109.9785846570306</v>
+        <v>67.12822618789662</v>
       </c>
       <c r="L37" t="n">
-        <v>124.9001515618454</v>
+        <v>242.8997476188503</v>
       </c>
       <c r="M37" t="n">
-        <v>320.6156990194423</v>
+        <v>438.6152950764472</v>
       </c>
       <c r="N37" t="n">
-        <v>517.0357243879758</v>
+        <v>635.1117806831132</v>
       </c>
       <c r="O37" t="n">
-        <v>682.5157372090404</v>
+        <v>800.5917935041778</v>
       </c>
       <c r="P37" t="n">
-        <v>800.591793504178</v>
+        <v>800.5917935041778</v>
       </c>
       <c r="Q37" t="n">
-        <v>798.8722351508184</v>
+        <v>798.8722351508181</v>
       </c>
       <c r="R37" t="n">
-        <v>665.5981361857264</v>
+        <v>798.8722351508181</v>
       </c>
       <c r="S37" t="n">
-        <v>463.428491361439</v>
+        <v>798.8722351508181</v>
       </c>
       <c r="T37" t="n">
-        <v>261.2588465371516</v>
+        <v>622.5207703429455</v>
       </c>
       <c r="U37" t="n">
-        <v>59.08920171286422</v>
+        <v>420.3511255186583</v>
       </c>
       <c r="V37" t="n">
-        <v>59.08920171286422</v>
+        <v>218.1814806943709</v>
       </c>
       <c r="W37" t="n">
-        <v>59.08920171286422</v>
+        <v>16.01183587008356</v>
       </c>
       <c r="X37" t="n">
         <v>16.01183587008356</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="C38" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="D38" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="E38" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="F38" t="n">
-        <v>16.01183587008356</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="G38" t="n">
-        <v>16.01183587008356</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="H38" t="n">
-        <v>16.01183587008356</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="I38" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J38" t="n">
-        <v>25.71381148713644</v>
+        <v>25.71381148713635</v>
       </c>
       <c r="K38" t="n">
-        <v>90.99307620534634</v>
+        <v>90.99307620534637</v>
       </c>
       <c r="L38" t="n">
-        <v>208.8795383336698</v>
+        <v>208.8795383336699</v>
       </c>
       <c r="M38" t="n">
         <v>371.7203791850239</v>
       </c>
       <c r="N38" t="n">
-        <v>541.8099634650434</v>
+        <v>541.8099634650433</v>
       </c>
       <c r="O38" t="n">
-        <v>689.0854734804528</v>
+        <v>689.0854734804527</v>
       </c>
       <c r="P38" t="n">
-        <v>780.2807130803022</v>
+        <v>780.280713080302</v>
       </c>
       <c r="Q38" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="R38" t="n">
-        <v>791.8832967842319</v>
+        <v>791.8832967842317</v>
       </c>
       <c r="S38" t="n">
-        <v>632.5091265883926</v>
+        <v>632.5091265883924</v>
       </c>
       <c r="T38" t="n">
-        <v>622.5207703429455</v>
+        <v>632.5091265883924</v>
       </c>
       <c r="U38" t="n">
-        <v>622.5207703429455</v>
+        <v>545.3888010284347</v>
       </c>
       <c r="V38" t="n">
-        <v>420.3511255186583</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="W38" t="n">
-        <v>218.1814806943709</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="X38" t="n">
-        <v>218.1814806943709</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.01183587008356</v>
+        <v>343.2191562041475</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.40233482052724</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="C39" t="n">
-        <v>22.40233482052724</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="D39" t="n">
-        <v>16.01183587008356</v>
+        <v>166.1029202529205</v>
       </c>
       <c r="E39" t="n">
-        <v>16.01183587008356</v>
+        <v>166.1029202529205</v>
       </c>
       <c r="F39" t="n">
-        <v>16.01183587008356</v>
+        <v>166.1029202529205</v>
       </c>
       <c r="G39" t="n">
-        <v>16.01183587008356</v>
+        <v>166.1029202529205</v>
       </c>
       <c r="H39" t="n">
-        <v>16.01183587008356</v>
+        <v>64.47055864936223</v>
       </c>
       <c r="I39" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J39" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="K39" t="n">
         <v>71.88022049063729</v>
@@ -7268,37 +7268,37 @@
         <v>534.1502627895081</v>
       </c>
       <c r="O39" t="n">
-        <v>692.3277866452152</v>
+        <v>692.3277866452149</v>
       </c>
       <c r="P39" t="n">
-        <v>787.1349271992796</v>
+        <v>787.1349271992793</v>
       </c>
       <c r="Q39" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="R39" t="n">
-        <v>774.8744768573978</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="S39" t="n">
-        <v>624.0299015373274</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="T39" t="n">
-        <v>426.7416244691019</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="U39" t="n">
-        <v>224.5719796448146</v>
+        <v>572.7048320331103</v>
       </c>
       <c r="V39" t="n">
-        <v>22.40233482052724</v>
+        <v>370.535187208823</v>
       </c>
       <c r="W39" t="n">
-        <v>22.40233482052724</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="X39" t="n">
-        <v>22.40233482052724</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="Y39" t="n">
-        <v>22.40233482052724</v>
+        <v>168.3655423845357</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="C40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="D40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="E40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="F40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="G40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="H40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J40" t="n">
-        <v>16.01183587008356</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="K40" t="n">
-        <v>16.01183587008356</v>
+        <v>67.12822618789639</v>
       </c>
       <c r="L40" t="n">
-        <v>191.7833573010372</v>
+        <v>242.8997476188501</v>
       </c>
       <c r="M40" t="n">
-        <v>320.5392387813096</v>
+        <v>438.615295076447</v>
       </c>
       <c r="N40" t="n">
-        <v>517.0357243879756</v>
+        <v>635.111780683113</v>
       </c>
       <c r="O40" t="n">
-        <v>682.5157372090401</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="P40" t="n">
-        <v>800.5917935041778</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="Q40" t="n">
-        <v>798.8722351508181</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="R40" t="n">
-        <v>665.5981361857262</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="S40" t="n">
-        <v>463.4284913614388</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="T40" t="n">
-        <v>261.2588465371515</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="U40" t="n">
-        <v>261.2588465371515</v>
+        <v>598.4221486798903</v>
       </c>
       <c r="V40" t="n">
-        <v>218.1814806943709</v>
+        <v>399.8299455246105</v>
       </c>
       <c r="W40" t="n">
-        <v>16.01183587008356</v>
+        <v>399.8299455246105</v>
       </c>
       <c r="X40" t="n">
-        <v>16.01183587008356</v>
+        <v>197.6603007003233</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.01183587008356</v>
+        <v>197.6603007003233</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.0828590313159</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="C41" t="n">
-        <v>16.01183587008357</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="D41" t="n">
-        <v>16.01183587008357</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="E41" t="n">
-        <v>16.01183587008357</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="F41" t="n">
-        <v>16.01183587008357</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="G41" t="n">
-        <v>16.01183587008357</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="H41" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I41" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J41" t="n">
-        <v>25.71381148713658</v>
+        <v>25.71381148713645</v>
       </c>
       <c r="K41" t="n">
-        <v>90.9930762053466</v>
+        <v>90.99307620534637</v>
       </c>
       <c r="L41" t="n">
-        <v>208.8795383336702</v>
+        <v>208.8795383336696</v>
       </c>
       <c r="M41" t="n">
-        <v>371.7203791850243</v>
+        <v>371.7203791850237</v>
       </c>
       <c r="N41" t="n">
-        <v>541.8099634650439</v>
+        <v>541.8099634650432</v>
       </c>
       <c r="O41" t="n">
-        <v>689.0854734804532</v>
+        <v>689.0854734804526</v>
       </c>
       <c r="P41" t="n">
-        <v>780.2807130803027</v>
+        <v>780.280713080302</v>
       </c>
       <c r="Q41" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="R41" t="n">
-        <v>800.5917935041782</v>
+        <v>791.8832967842317</v>
       </c>
       <c r="S41" t="n">
-        <v>800.5917935041782</v>
+        <v>791.8832967842317</v>
       </c>
       <c r="T41" t="n">
-        <v>598.4221486798908</v>
+        <v>791.8832967842317</v>
       </c>
       <c r="U41" t="n">
-        <v>598.4221486798908</v>
+        <v>589.7136519599444</v>
       </c>
       <c r="V41" t="n">
-        <v>396.2525038556034</v>
+        <v>387.5440071356571</v>
       </c>
       <c r="W41" t="n">
-        <v>396.2525038556034</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="X41" t="n">
-        <v>396.2525038556034</v>
+        <v>218.1814806943708</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.0828590313159</v>
+        <v>218.1814806943708</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>438.6317847278839</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="C42" t="n">
-        <v>264.1787554467569</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="D42" t="n">
-        <v>264.1787554467569</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="E42" t="n">
-        <v>264.1787554467569</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="F42" t="n">
-        <v>117.6441974736419</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6441974736419</v>
+        <v>30.84996876981273</v>
       </c>
       <c r="H42" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I42" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J42" t="n">
-        <v>31.97419600362993</v>
+        <v>31.97419600362925</v>
       </c>
       <c r="K42" t="n">
-        <v>87.84258062418367</v>
+        <v>87.84258062418299</v>
       </c>
       <c r="L42" t="n">
-        <v>209.2870594885622</v>
+        <v>209.2870594885616</v>
       </c>
       <c r="M42" t="n">
-        <v>370.3639063295525</v>
+        <v>370.3639063295518</v>
       </c>
       <c r="N42" t="n">
-        <v>550.1126229230545</v>
+        <v>550.1126229230538</v>
       </c>
       <c r="O42" t="n">
-        <v>692.3277866452156</v>
+        <v>692.3277866452149</v>
       </c>
       <c r="P42" t="n">
-        <v>787.13492719928</v>
+        <v>787.1349271992793</v>
       </c>
       <c r="Q42" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="R42" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="S42" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="T42" t="n">
-        <v>800.5917935041782</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="U42" t="n">
-        <v>800.5917935041782</v>
+        <v>572.7048320331103</v>
       </c>
       <c r="V42" t="n">
-        <v>800.5917935041782</v>
+        <v>370.535187208823</v>
       </c>
       <c r="W42" t="n">
-        <v>800.5917935041782</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="X42" t="n">
-        <v>606.8471217479519</v>
+        <v>168.3655423845357</v>
       </c>
       <c r="Y42" t="n">
-        <v>606.8471217479519</v>
+        <v>168.3655423845357</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>617.2237703205789</v>
+        <v>212.8844806720037</v>
       </c>
       <c r="C43" t="n">
-        <v>617.2237703205789</v>
+        <v>212.8844806720037</v>
       </c>
       <c r="D43" t="n">
-        <v>486.3783539234581</v>
+        <v>62.76784125966793</v>
       </c>
       <c r="E43" t="n">
-        <v>486.3783539234581</v>
+        <v>62.76784125966793</v>
       </c>
       <c r="F43" t="n">
-        <v>339.4884064255477</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="G43" t="n">
-        <v>170.8193747761082</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="H43" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="I43" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="J43" t="n">
-        <v>16.01183587008357</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="K43" t="n">
-        <v>109.9785846570306</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="L43" t="n">
-        <v>124.9001515618454</v>
+        <v>191.7833573010372</v>
       </c>
       <c r="M43" t="n">
-        <v>320.6156990194423</v>
+        <v>387.4989047586341</v>
       </c>
       <c r="N43" t="n">
-        <v>517.0357243879761</v>
+        <v>583.9953903653002</v>
       </c>
       <c r="O43" t="n">
-        <v>682.5157372090406</v>
+        <v>749.4754031863647</v>
       </c>
       <c r="P43" t="n">
-        <v>800.5917935041782</v>
+        <v>800.5917935041775</v>
       </c>
       <c r="Q43" t="n">
-        <v>798.8722351508186</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="R43" t="n">
-        <v>798.8722351508186</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="S43" t="n">
-        <v>798.8722351508186</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="T43" t="n">
-        <v>798.8722351508186</v>
+        <v>596.7025903265306</v>
       </c>
       <c r="U43" t="n">
-        <v>798.8722351508186</v>
+        <v>596.7025903265306</v>
       </c>
       <c r="V43" t="n">
-        <v>798.8722351508186</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="W43" t="n">
-        <v>798.8722351508186</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="X43" t="n">
-        <v>798.8722351508186</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="Y43" t="n">
-        <v>798.8722351508186</v>
+        <v>394.5329455022434</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.01183587008355</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="C44" t="n">
-        <v>16.01183587008355</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="D44" t="n">
-        <v>16.01183587008355</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="E44" t="n">
-        <v>16.01183587008355</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="F44" t="n">
-        <v>16.01183587008355</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="G44" t="n">
-        <v>16.01183587008355</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="H44" t="n">
-        <v>16.01183587008355</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="I44" t="n">
         <v>16.01183587008355</v>
@@ -7672,28 +7672,28 @@
         <v>800.5917935041775</v>
       </c>
       <c r="R44" t="n">
-        <v>800.5917935041775</v>
+        <v>791.8832967842317</v>
       </c>
       <c r="S44" t="n">
-        <v>800.5917935041775</v>
+        <v>791.8832967842317</v>
       </c>
       <c r="T44" t="n">
-        <v>598.4221486798903</v>
+        <v>589.7136519599444</v>
       </c>
       <c r="U44" t="n">
-        <v>598.4221486798903</v>
+        <v>387.5440071356571</v>
       </c>
       <c r="V44" t="n">
-        <v>598.4221486798903</v>
+        <v>343.2191562041475</v>
       </c>
       <c r="W44" t="n">
-        <v>420.3511255186581</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="X44" t="n">
-        <v>420.3511255186581</v>
+        <v>141.0495113798601</v>
       </c>
       <c r="Y44" t="n">
-        <v>218.1814806943708</v>
+        <v>141.0495113798601</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>447.5775733598199</v>
+        <v>550.6287387227311</v>
       </c>
       <c r="C45" t="n">
-        <v>447.5775733598199</v>
+        <v>550.6287387227311</v>
       </c>
       <c r="D45" t="n">
-        <v>312.7648644902621</v>
+        <v>401.6943290614798</v>
       </c>
       <c r="E45" t="n">
-        <v>153.5274094848066</v>
+        <v>401.6943290614798</v>
       </c>
       <c r="F45" t="n">
-        <v>153.5274094848066</v>
+        <v>255.1597710883648</v>
       </c>
       <c r="G45" t="n">
-        <v>16.01183587008355</v>
+        <v>117.6441974736418</v>
       </c>
       <c r="H45" t="n">
         <v>16.01183587008355</v>
@@ -7727,19 +7727,19 @@
         <v>16.01183587008355</v>
       </c>
       <c r="J45" t="n">
-        <v>16.01183587008355</v>
+        <v>31.97419600362925</v>
       </c>
       <c r="K45" t="n">
-        <v>71.88022049063729</v>
+        <v>87.84258062418299</v>
       </c>
       <c r="L45" t="n">
-        <v>193.3246993550159</v>
+        <v>209.2870594885616</v>
       </c>
       <c r="M45" t="n">
-        <v>354.4015461960061</v>
+        <v>370.3639063295518</v>
       </c>
       <c r="N45" t="n">
-        <v>534.1502627895081</v>
+        <v>550.1126229230538</v>
       </c>
       <c r="O45" t="n">
         <v>692.3277866452149</v>
@@ -7751,28 +7751,28 @@
         <v>800.5917935041775</v>
       </c>
       <c r="R45" t="n">
-        <v>800.5917935041775</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="S45" t="n">
-        <v>649.7472181841072</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="T45" t="n">
-        <v>649.7472181841072</v>
+        <v>774.8744768573976</v>
       </c>
       <c r="U45" t="n">
-        <v>649.7472181841072</v>
+        <v>572.7048320331103</v>
       </c>
       <c r="V45" t="n">
-        <v>649.7472181841072</v>
+        <v>550.6287387227311</v>
       </c>
       <c r="W45" t="n">
-        <v>649.7472181841072</v>
+        <v>550.6287387227311</v>
       </c>
       <c r="X45" t="n">
-        <v>649.7472181841072</v>
+        <v>550.6287387227311</v>
       </c>
       <c r="Y45" t="n">
-        <v>447.5775733598199</v>
+        <v>550.6287387227311</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.0828590313157</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="C46" t="n">
-        <v>162.9017833679939</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="D46" t="n">
-        <v>162.9017833679939</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="E46" t="n">
-        <v>162.9017833679939</v>
+        <v>246.6198519198502</v>
       </c>
       <c r="F46" t="n">
-        <v>16.01183587008355</v>
+        <v>99.72990442193989</v>
       </c>
       <c r="G46" t="n">
         <v>16.01183587008355</v>
@@ -7809,49 +7809,49 @@
         <v>16.01183587008355</v>
       </c>
       <c r="K46" t="n">
-        <v>109.9785846570306</v>
+        <v>16.01183587008355</v>
       </c>
       <c r="L46" t="n">
-        <v>285.7501060879842</v>
+        <v>191.7833573010372</v>
       </c>
       <c r="M46" t="n">
-        <v>481.4656535455812</v>
+        <v>387.4989047586341</v>
       </c>
       <c r="N46" t="n">
-        <v>517.0357243879754</v>
+        <v>583.9953903653002</v>
       </c>
       <c r="O46" t="n">
-        <v>682.5157372090399</v>
+        <v>749.4754031863647</v>
       </c>
       <c r="P46" t="n">
         <v>800.5917935041775</v>
       </c>
       <c r="Q46" t="n">
-        <v>800.5917935041775</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="R46" t="n">
-        <v>800.5917935041775</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="S46" t="n">
-        <v>800.5917935041775</v>
+        <v>798.8722351508179</v>
       </c>
       <c r="T46" t="n">
-        <v>598.4221486798903</v>
+        <v>596.7025903265306</v>
       </c>
       <c r="U46" t="n">
-        <v>396.252503855603</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="V46" t="n">
-        <v>396.252503855603</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="W46" t="n">
-        <v>396.252503855603</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="X46" t="n">
-        <v>396.252503855603</v>
+        <v>394.5329455022434</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.0828590313157</v>
+        <v>394.5329455022434</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>29.29472411940281</v>
+        <v>13.17112802491198</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>16.12359609449084</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8850,16 +8850,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>11.82785847904945</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>110.8736346697239</v>
       </c>
       <c r="N13" t="n">
-        <v>171.7404842806914</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>16.12359609449106</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>16.12359609449097</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9090,19 +9090,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.4324283456754</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>128.5345264715994</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>15.73781958157888</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>29.29472411940269</v>
+        <v>13.17112802491198</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>16.12359609449051</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,7 +9324,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>11.82785847904945</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9333,13 +9333,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>9.265782739137101</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>67.37053707431912</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9482,7 +9482,7 @@
         <v>13.17112802491198</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>16.12359609449038</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>16.12359609449106</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.6665337808823</v>
+        <v>11.82785847904945</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
         <v>178.5096609094456</v>
@@ -9576,7 +9576,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>67.37053707431888</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>16.12359609449084</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>16.12359609449074</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,7 +9798,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>11.82785847904945</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
@@ -9810,10 +9810,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4897322605575827</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>67.37053707431934</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9965,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>16.12359609449129</v>
       </c>
       <c r="O27" t="n">
-        <v>16.12359609449075</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>11.82785847904945</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>15.9577268041208</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10050,7 +10050,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>67.3705370743198</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>16.12359609449075</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>16.1235960944912</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10281,13 +10281,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>104.18169060474</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>67.3705370743198</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>29.29472411940281</v>
+        <v>13.17112802491198</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>16.1235960944912</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10515,7 +10515,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>110.8736346697239</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
@@ -10524,7 +10524,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>67.3705370743198</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>16.12359609449084</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>16.12359609449098</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>63.46057597178991</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>171.7404842806916</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>15.73781958157888</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>16.12359609449075</v>
+        <v>16.12359609449052</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>11.82785847904945</v>
+        <v>63.46057597178969</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>110.8736346697239</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
         <v>171.8177168444618</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>15.73781958157888</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>29.29472411940326</v>
+        <v>29.29472411940259</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>11.82785847904945</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>171.7404842806918</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>67.37053707431912</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>13.17112802491198</v>
+        <v>29.29472411940259</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>16.12359609449052</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>11.82785847904945</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11466,13 +11466,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>9.265782739136675</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>67.37053707431912</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.9944433195167</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>212.9062036824866</v>
+        <v>413.054152058531</v>
       </c>
       <c r="H11" t="n">
         <v>316.4464763083211</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>123.7872987546788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>213.2526667278472</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1657660713082</v>
+        <v>51.01781769526374</v>
       </c>
       <c r="V11" t="n">
         <v>127.6043100940905</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>149.0930203413686</v>
       </c>
       <c r="X11" t="n">
-        <v>169.5831523024246</v>
+        <v>202.0621995015955</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,19 +23342,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>22.16332227072346</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.8507284534942</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.6160379875227</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.46014348031223</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>149.3361295668697</v>
@@ -23399,7 +23399,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487517</v>
       </c>
       <c r="X12" t="n">
         <v>5.625036827433036</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9823413329452</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>153.2594635169644</v>
@@ -23439,7 +23439,7 @@
         <v>125.1179786690865</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.04847171286322</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>1.702362769826067</v>
       </c>
       <c r="R13" t="n">
-        <v>131.9413579754411</v>
+        <v>69.4162909072426</v>
       </c>
       <c r="S13" t="n">
         <v>206.4387880832494</v>
       </c>
       <c r="T13" t="n">
-        <v>23.48800585231544</v>
+        <v>223.6359542283599</v>
       </c>
       <c r="U13" t="n">
         <v>286.2640127369174</v>
       </c>
       <c r="V13" t="n">
-        <v>210.415722852586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>25.56170701299271</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>18.43670497605035</v>
       </c>
     </row>
     <row r="14">
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.054152058531</v>
+        <v>212.9062036824865</v>
       </c>
       <c r="H14" t="n">
-        <v>116.2985279322766</v>
+        <v>316.4464763083211</v>
       </c>
       <c r="I14" t="n">
         <v>123.7872987546788</v>
@@ -23548,22 +23548,22 @@
         <v>157.7804284938809</v>
       </c>
       <c r="T14" t="n">
-        <v>213.2526667278472</v>
+        <v>36.9623537982273</v>
       </c>
       <c r="U14" t="n">
         <v>51.01781769526369</v>
       </c>
       <c r="V14" t="n">
-        <v>151.461945540515</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>149.0930203413685</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>186.0899902800091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,13 +23624,13 @@
         <v>25.46014348031223</v>
       </c>
       <c r="S15" t="n">
-        <v>103.2514477049219</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T15" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>25.71428243620434</v>
+        <v>217.4478627924434</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>5.534747401259864</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.9823413329452</v>
@@ -23703,16 +23703,16 @@
         <v>131.9413579754411</v>
       </c>
       <c r="S16" t="n">
-        <v>6.290839707204867</v>
+        <v>31.85083792345549</v>
       </c>
       <c r="T16" t="n">
-        <v>223.6359542283599</v>
+        <v>23.48800585231538</v>
       </c>
       <c r="U16" t="n">
-        <v>224.1959833226381</v>
+        <v>86.11606436087294</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>51.98969494778351</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.43670497605029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>165.124943394963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>154.5350932446386</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>230.5857328120916</v>
       </c>
       <c r="G17" t="n">
-        <v>413.054152058531</v>
+        <v>212.9062036824866</v>
       </c>
       <c r="H17" t="n">
-        <v>116.2985279322765</v>
+        <v>316.4464763083211</v>
       </c>
       <c r="I17" t="n">
         <v>123.7872987546788</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8.621411752746383</v>
+        <v>8.621411752746411</v>
       </c>
       <c r="S17" t="n">
         <v>157.7804284938809</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>149.0930203413686</v>
       </c>
       <c r="X17" t="n">
-        <v>193.4407877488491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>186.089990280009</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,10 +23819,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>77.77664622372411</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.1404178785758</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.46014348031221</v>
+        <v>25.46014348031223</v>
       </c>
       <c r="S18" t="n">
         <v>149.3361295668697</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U18" t="n">
-        <v>25.71428243620429</v>
+        <v>154.5141155266243</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487522</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>5.534747401259978</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,13 +23907,13 @@
         <v>166.9823413329452</v>
       </c>
       <c r="H19" t="n">
-        <v>153.2594635169644</v>
+        <v>106.9710181812758</v>
       </c>
       <c r="I19" t="n">
         <v>125.1179786690865</v>
       </c>
       <c r="J19" t="n">
-        <v>22.0484717128632</v>
+        <v>22.04847171286322</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>131.941357975441</v>
+        <v>131.9413579754411</v>
       </c>
       <c r="S19" t="n">
         <v>206.4387880832494</v>
       </c>
       <c r="T19" t="n">
-        <v>49.048004068566</v>
+        <v>223.6359542283599</v>
       </c>
       <c r="U19" t="n">
-        <v>86.11606436087288</v>
+        <v>86.11606436087305</v>
       </c>
       <c r="V19" t="n">
-        <v>51.98969494778345</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>86.37504996054645</v>
+        <v>86.37504996054662</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>165.1249433949631</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T20" t="n">
-        <v>13.10471835180269</v>
+        <v>13.10471835180286</v>
       </c>
       <c r="U20" t="n">
-        <v>241.2772933883155</v>
+        <v>83.49686489443491</v>
       </c>
       <c r="V20" t="n">
-        <v>127.6043100940904</v>
+        <v>127.6043100940906</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>149.0930203413687</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>141.1184716036997</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>149.3361295668697</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>209.2932415465783</v>
+        <v>225.8622308122488</v>
       </c>
       <c r="V21" t="n">
-        <v>32.65263877338077</v>
+        <v>32.65263877338094</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487528</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>166.9823413329452</v>
       </c>
       <c r="H22" t="n">
-        <v>153.2594635169644</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>125.1179786690865</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.702362769826067</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>131.9413579754411</v>
       </c>
       <c r="S22" t="n">
-        <v>206.4387880832494</v>
+        <v>6.290839707205038</v>
       </c>
       <c r="T22" t="n">
-        <v>23.48800585231538</v>
+        <v>223.6359542283599</v>
       </c>
       <c r="U22" t="n">
-        <v>86.11606436087294</v>
+        <v>286.2640127369174</v>
       </c>
       <c r="V22" t="n">
-        <v>209.4910511394751</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>149.4617105048581</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.43670497605029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>182.5858932874361</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>154.5350932446385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24226,7 +24226,7 @@
         <v>116.2985279322766</v>
       </c>
       <c r="I23" t="n">
-        <v>123.7872987546788</v>
+        <v>113.8988260716862</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>8.621411752746411</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.2526667278472</v>
+        <v>13.10471835180275</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1657660713082</v>
+        <v>51.01781769526374</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>193.4407877488491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24296,10 +24296,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>130.3794608226519</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>100.6160379875227</v>
@@ -24335,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8622308122488</v>
+        <v>25.7142824362044</v>
       </c>
       <c r="V24" t="n">
-        <v>226.473993188486</v>
+        <v>32.65263877338083</v>
       </c>
       <c r="W24" t="n">
         <v>51.54703478487517</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.534747401259921</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24384,7 +24384,7 @@
         <v>153.2594635169644</v>
       </c>
       <c r="I25" t="n">
-        <v>125.1179786690865</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>22.04847171286322</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>131.9413579754411</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.4387880832494</v>
+        <v>35.04824046246333</v>
       </c>
       <c r="T25" t="n">
-        <v>23.48800585231544</v>
+        <v>223.6359542283599</v>
       </c>
       <c r="U25" t="n">
-        <v>258.1100252236928</v>
+        <v>286.2640127369174</v>
       </c>
       <c r="V25" t="n">
-        <v>51.98969494778356</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>205.6400571426418</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>206.7280973656669</v>
       </c>
       <c r="G26" t="n">
-        <v>394.544267622792</v>
+        <v>212.9062036824865</v>
       </c>
       <c r="H26" t="n">
         <v>316.4464763083211</v>
@@ -24493,7 +24493,7 @@
         <v>8.621411752746411</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T26" t="n">
         <v>213.2526667278472</v>
@@ -24502,16 +24502,16 @@
         <v>251.1657660713082</v>
       </c>
       <c r="V26" t="n">
-        <v>127.6043100940905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>149.0930203413686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>186.0899902800091</v>
+        <v>186.089990280009</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24572,25 +24572,25 @@
         <v>25.46014348031223</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T27" t="n">
-        <v>195.3153942975433</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>25.7142824362044</v>
+        <v>225.8622308122488</v>
       </c>
       <c r="V27" t="n">
-        <v>163.3435358660316</v>
+        <v>32.65263877338072</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>5.625036827433036</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>148.5901444984068</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>5.244030022143278</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.702362769826067</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>131.9413579754411</v>
       </c>
       <c r="S28" t="n">
-        <v>108.3758473995953</v>
+        <v>206.4387880832494</v>
       </c>
       <c r="T28" t="n">
-        <v>23.48800585231544</v>
+        <v>223.6359542283599</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2640127369174</v>
+        <v>86.11606436087288</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>86.37504996054656</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>25.5617070129926</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>18.43670497605024</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>154.5350932446385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>363.4204856365228</v>
+        <v>181.7824216962172</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>212.9062036824866</v>
+        <v>413.054152058531</v>
       </c>
       <c r="H29" t="n">
-        <v>316.4464763083211</v>
+        <v>116.2985279322765</v>
       </c>
       <c r="I29" t="n">
         <v>123.7872987546788</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8.621411752746411</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>157.7804284938809</v>
       </c>
       <c r="T29" t="n">
         <v>213.2526667278472</v>
@@ -24739,16 +24739,16 @@
         <v>251.1657660713082</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>127.6043100940904</v>
       </c>
       <c r="W29" t="n">
-        <v>149.0930203413686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>218.5690374791801</v>
       </c>
     </row>
     <row r="30">
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.46014348031223</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U30" t="n">
-        <v>25.7142824362044</v>
+        <v>49.57191788262895</v>
       </c>
       <c r="V30" t="n">
-        <v>32.65263877338083</v>
+        <v>32.65263877338072</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487505</v>
       </c>
       <c r="X30" t="n">
-        <v>199.4463912425382</v>
+        <v>5.625036827432922</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>131.9413579754411</v>
       </c>
       <c r="S31" t="n">
         <v>206.4387880832494</v>
@@ -24894,19 +24894,19 @@
         <v>223.6359542283599</v>
       </c>
       <c r="U31" t="n">
-        <v>86.116064360873</v>
+        <v>286.2640127369174</v>
       </c>
       <c r="V31" t="n">
-        <v>176.5899238620586</v>
+        <v>51.98969494778345</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>111.935048176797</v>
       </c>
       <c r="X31" t="n">
-        <v>25.56170701299271</v>
+        <v>25.5617070129926</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>18.43670497605024</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>197.603990594134</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24973,16 +24973,16 @@
         <v>213.2526667278472</v>
       </c>
       <c r="U32" t="n">
-        <v>51.01781769526374</v>
+        <v>51.01781769526363</v>
       </c>
       <c r="V32" t="n">
-        <v>127.6043100940905</v>
+        <v>127.6043100940904</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>149.0930203413685</v>
       </c>
       <c r="X32" t="n">
-        <v>169.5831523024246</v>
+        <v>202.0621995015955</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.1404178785758</v>
       </c>
       <c r="H33" t="n">
         <v>100.6160379875227</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.46014348031223</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U33" t="n">
-        <v>155.5281063538409</v>
+        <v>49.57191788262895</v>
       </c>
       <c r="V33" t="n">
-        <v>32.65263877338083</v>
+        <v>32.65263877338072</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487505</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>5.625036827432922</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9823413329452</v>
+        <v>82.39909069678102</v>
       </c>
       <c r="H34" t="n">
         <v>153.2594635169644</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.702362769826067</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>131.9413579754411</v>
       </c>
       <c r="S34" t="n">
-        <v>6.290839707204924</v>
+        <v>206.4387880832494</v>
       </c>
       <c r="T34" t="n">
-        <v>23.48800585231544</v>
+        <v>23.48800585231533</v>
       </c>
       <c r="U34" t="n">
         <v>286.2640127369174</v>
       </c>
       <c r="V34" t="n">
-        <v>51.98969494778356</v>
+        <v>51.98969494778345</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.938061167742</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>413.054152058531</v>
       </c>
       <c r="H35" t="n">
-        <v>148.7775751314475</v>
+        <v>316.4464763083211</v>
       </c>
       <c r="I35" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>157.7804284938809</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>213.2526667278472</v>
       </c>
       <c r="U35" t="n">
-        <v>51.01781769526369</v>
+        <v>251.1657660713082</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>262.9918464130547</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>160.206589688928</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25244,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>130.3794608226519</v>
       </c>
       <c r="G36" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>100.6160379875227</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8622308122488</v>
+        <v>25.7142824362044</v>
       </c>
       <c r="V36" t="n">
-        <v>32.65263877338077</v>
+        <v>32.65263877338083</v>
       </c>
       <c r="W36" t="n">
-        <v>51.54703478487511</v>
+        <v>51.54703478487517</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>131.9413579754411</v>
       </c>
       <c r="S37" t="n">
-        <v>6.290839707204867</v>
+        <v>206.4387880832494</v>
       </c>
       <c r="T37" t="n">
-        <v>23.48800585231538</v>
+        <v>49.048004068566</v>
       </c>
       <c r="U37" t="n">
-        <v>86.11606436087294</v>
+        <v>86.116064360873</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>51.98969494778356</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>86.37504996054656</v>
       </c>
       <c r="X37" t="n">
-        <v>183.0630632046843</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>206.7280973656671</v>
       </c>
       <c r="G38" t="n">
         <v>413.054152058531</v>
@@ -25411,7 +25411,7 @@
         <v>316.4464763083211</v>
       </c>
       <c r="I38" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.3641940448545</v>
+        <v>213.2526667278472</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1657660713082</v>
+        <v>164.9166437669501</v>
       </c>
       <c r="V38" t="n">
         <v>127.6043100940905</v>
       </c>
       <c r="W38" t="n">
-        <v>149.0930203413686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>186.0899902800091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>141.1184716036995</v>
+        <v>145.2050696543397</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25487,10 +25487,10 @@
         <v>136.1404178785758</v>
       </c>
       <c r="H39" t="n">
-        <v>100.6160379875227</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>47.97413555148589</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>195.3153942975433</v>
       </c>
       <c r="U39" t="n">
-        <v>25.7142824362044</v>
+        <v>25.71428243620446</v>
       </c>
       <c r="V39" t="n">
-        <v>32.65263877338083</v>
+        <v>32.65263877338089</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487522</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.702362769826067</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>131.9413579754411</v>
       </c>
       <c r="S40" t="n">
-        <v>6.290839707204924</v>
+        <v>206.4387880832494</v>
       </c>
       <c r="T40" t="n">
-        <v>23.48800585231544</v>
+        <v>223.6359542283599</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2640127369174</v>
+        <v>86.11606436087305</v>
       </c>
       <c r="V40" t="n">
-        <v>209.4910511394752</v>
+        <v>55.53136220010109</v>
       </c>
       <c r="W40" t="n">
-        <v>86.37504996054656</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>25.56170701299277</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>188.9825788413875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,7 +25645,7 @@
         <v>413.054152058531</v>
       </c>
       <c r="H41" t="n">
-        <v>316.4464763083211</v>
+        <v>116.2985279322767</v>
       </c>
       <c r="I41" t="n">
         <v>123.7872987546788</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>8.621411752746411</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>157.7804284938809</v>
       </c>
       <c r="T41" t="n">
-        <v>13.10471835180263</v>
+        <v>213.2526667278472</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1657660713082</v>
+        <v>51.0178176952638</v>
       </c>
       <c r="V41" t="n">
-        <v>127.6043100940904</v>
+        <v>127.6043100940905</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>181.5720675405396</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>186.089990280009</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,13 +25718,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.1404178785758</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>85.92628641679082</v>
       </c>
       <c r="I42" t="n">
         <v>47.97413555148589</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.46014348031223</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>149.3361295668697</v>
@@ -25763,16 +25763,16 @@
         <v>195.3153942975433</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8622308122488</v>
+        <v>25.71428243620446</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>32.65263877338089</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>51.54703478487522</v>
       </c>
       <c r="X42" t="n">
-        <v>13.96576016481339</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>19.07851078506283</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.13260268724271</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9823413329452</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.2594635169644</v>
       </c>
       <c r="I43" t="n">
         <v>125.1179786690865</v>
@@ -25839,13 +25839,13 @@
         <v>206.4387880832494</v>
       </c>
       <c r="T43" t="n">
-        <v>223.6359542283599</v>
+        <v>23.4880058523155</v>
       </c>
       <c r="U43" t="n">
         <v>286.2640127369174</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>51.98969494778362</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>182.5858932874362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25885,7 +25885,7 @@
         <v>316.4464763083211</v>
       </c>
       <c r="I44" t="n">
-        <v>123.7872987546788</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>8.621411752746411</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>157.7804284938809</v>
@@ -25921,19 +25921,19 @@
         <v>13.1047183518028</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1657660713082</v>
+        <v>51.0178176952638</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>283.8706560479403</v>
       </c>
       <c r="W44" t="n">
-        <v>172.9506557877932</v>
+        <v>149.0930203413686</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>186.0899902800092</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,19 +25949,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>13.98048378377652</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>100.6160379875227</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>47.97413555148589</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.46014348031223</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>149.3361295668697</v>
       </c>
       <c r="T45" t="n">
         <v>195.3153942975433</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8622308122488</v>
+        <v>25.71428243620446</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>210.9452547721499</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>5.534747401259978</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>136.3775561919393</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9823413329452</v>
+        <v>84.10145346660744</v>
       </c>
       <c r="H46" t="n">
         <v>153.2594635169644</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.702362769826067</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>131.9413579754411</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.43670497605041</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>409628.8102647195</v>
+        <v>409628.8102647197</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>409628.8102647198</v>
+        <v>409628.8102647197</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>409628.8102647197</v>
+        <v>409628.8102647195</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>409628.8102647196</v>
+        <v>409628.8102647197</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>409628.8102647197</v>
+        <v>409628.8102647198</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>409628.8102647195</v>
+        <v>409628.8102647197</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>409628.8102647196</v>
+        <v>409628.8102647198</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>409628.8102647197</v>
+        <v>409628.8102647195</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>409628.8102647198</v>
+        <v>409628.8102647195</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>409628.8102647196</v>
+        <v>409628.8102647197</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
         <v>553011.5286340009</v>
@@ -26325,25 +26325,25 @@
         <v>248921.6158702833</v>
       </c>
       <c r="F2" t="n">
-        <v>248921.6158702834</v>
+        <v>248921.6158702833</v>
       </c>
       <c r="G2" t="n">
         <v>248921.6158702833</v>
       </c>
       <c r="H2" t="n">
+        <v>248921.6158702833</v>
+      </c>
+      <c r="I2" t="n">
         <v>248921.6158702834</v>
-      </c>
-      <c r="I2" t="n">
-        <v>248921.6158702833</v>
       </c>
       <c r="J2" t="n">
         <v>248921.6158702833</v>
       </c>
       <c r="K2" t="n">
+        <v>248921.6158702833</v>
+      </c>
+      <c r="L2" t="n">
         <v>248921.6158702834</v>
-      </c>
-      <c r="L2" t="n">
-        <v>248921.6158702833</v>
       </c>
       <c r="M2" t="n">
         <v>248921.6158702834</v>
@@ -26352,7 +26352,7 @@
         <v>248921.6158702834</v>
       </c>
       <c r="O2" t="n">
-        <v>248921.6158702834</v>
+        <v>248921.6158702833</v>
       </c>
       <c r="P2" t="n">
         <v>248921.6158702833</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49877.66932710377</v>
+        <v>49877.66932710379</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>13371.64729021622</v>
       </c>
       <c r="F4" t="n">
-        <v>13371.64729021623</v>
+        <v>13371.64729021622</v>
       </c>
       <c r="G4" t="n">
-        <v>13371.64729021622</v>
+        <v>13371.64729021621</v>
       </c>
       <c r="H4" t="n">
-        <v>13371.64729021623</v>
+        <v>13371.64729021621</v>
       </c>
       <c r="I4" t="n">
         <v>13371.64729021622</v>
       </c>
       <c r="J4" t="n">
+        <v>13371.64729021623</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13371.64729021623</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13371.64729021623</v>
+      </c>
+      <c r="M4" t="n">
         <v>13371.64729021622</v>
       </c>
-      <c r="K4" t="n">
-        <v>13371.64729021622</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13371.64729021622</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13371.64729021623</v>
-      </c>
       <c r="N4" t="n">
-        <v>13371.64729021622</v>
+        <v>13371.64729021621</v>
       </c>
       <c r="O4" t="n">
-        <v>13371.64729021623</v>
+        <v>13371.64729021621</v>
       </c>
       <c r="P4" t="n">
         <v>13371.64729021621</v>
@@ -26484,10 +26484,10 @@
         <v>24362.51204606304</v>
       </c>
       <c r="G5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606303</v>
       </c>
       <c r="H5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606303</v>
       </c>
       <c r="I5" t="n">
         <v>24362.51204606304</v>
@@ -26505,10 +26505,10 @@
         <v>24362.51204606304</v>
       </c>
       <c r="N5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606303</v>
       </c>
       <c r="O5" t="n">
-        <v>24362.51204606304</v>
+        <v>24362.51204606303</v>
       </c>
       <c r="P5" t="n">
         <v>24362.51204606303</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77734.67863818034</v>
+        <v>77690.54285949933</v>
       </c>
       <c r="C6" t="n">
-        <v>77734.6786381804</v>
+        <v>77690.54285949927</v>
       </c>
       <c r="D6" t="n">
-        <v>77734.67863818057</v>
+        <v>77690.54285949944</v>
       </c>
       <c r="E6" t="n">
-        <v>-297944.2426172415</v>
+        <v>-309250.9677575418</v>
       </c>
       <c r="F6" t="n">
-        <v>211187.4565340041</v>
+        <v>199880.7313937038</v>
       </c>
       <c r="G6" t="n">
-        <v>211187.4565340041</v>
+        <v>199880.7313937038</v>
       </c>
       <c r="H6" t="n">
-        <v>211187.4565340041</v>
+        <v>199880.7313937038</v>
       </c>
       <c r="I6" t="n">
-        <v>211187.4565340041</v>
+        <v>199880.7313937038</v>
       </c>
       <c r="J6" t="n">
-        <v>211187.4565340041</v>
+        <v>199880.7313937038</v>
       </c>
       <c r="K6" t="n">
-        <v>211187.4565340042</v>
+        <v>199880.7313937038</v>
       </c>
       <c r="L6" t="n">
-        <v>211187.4565340041</v>
+        <v>199880.7313937038</v>
       </c>
       <c r="M6" t="n">
-        <v>161309.7872069004</v>
+        <v>150003.0620666</v>
       </c>
       <c r="N6" t="n">
-        <v>211187.4565340041</v>
+        <v>199880.7313937039</v>
       </c>
       <c r="O6" t="n">
-        <v>211187.4565340041</v>
+        <v>199880.7313937038</v>
       </c>
       <c r="P6" t="n">
-        <v>211187.456534004</v>
+        <v>199880.7313937038</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>559.3356323302538</v>
       </c>
       <c r="G3" t="n">
-        <v>559.3356323302539</v>
+        <v>559.3356323302538</v>
       </c>
       <c r="H3" t="n">
         <v>559.3356323302538</v>
@@ -26804,31 +26804,31 @@
         <v>200.1479483760445</v>
       </c>
       <c r="G4" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="H4" t="n">
-        <v>200.1479483760445</v>
+        <v>200.1479483760443</v>
       </c>
       <c r="I4" t="n">
         <v>200.1479483760444</v>
       </c>
       <c r="J4" t="n">
+        <v>200.1479483760446</v>
+      </c>
+      <c r="K4" t="n">
+        <v>200.1479483760446</v>
+      </c>
+      <c r="L4" t="n">
+        <v>200.1479483760446</v>
+      </c>
+      <c r="M4" t="n">
         <v>200.1479483760444</v>
-      </c>
-      <c r="K4" t="n">
-        <v>200.1479483760444</v>
-      </c>
-      <c r="L4" t="n">
-        <v>200.1479483760444</v>
-      </c>
-      <c r="M4" t="n">
-        <v>200.1479483760445</v>
       </c>
       <c r="N4" t="n">
         <v>200.1479483760444</v>
       </c>
       <c r="O4" t="n">
-        <v>200.1479483760446</v>
+        <v>200.1479483760444</v>
       </c>
       <c r="P4" t="n">
         <v>200.1479483760444</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.1479483760444</v>
+        <v>200.1479483760445</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>23.02832580744607</v>
       </c>
       <c r="I17" t="n">
-        <v>86.68859081572711</v>
+        <v>86.6885908157271</v>
       </c>
       <c r="J17" t="n">
         <v>190.8458798974468</v>
       </c>
       <c r="K17" t="n">
-        <v>286.0285022754957</v>
+        <v>286.0285022754956</v>
       </c>
       <c r="L17" t="n">
         <v>354.8436494430414</v>
       </c>
       <c r="M17" t="n">
-        <v>394.8319310569234</v>
+        <v>394.8319310569233</v>
       </c>
       <c r="N17" t="n">
-        <v>401.2207244854997</v>
+        <v>401.2207244854995</v>
       </c>
       <c r="O17" t="n">
         <v>378.8613528513932</v>
       </c>
       <c r="P17" t="n">
-        <v>323.3493993914811</v>
+        <v>323.349399391481</v>
       </c>
       <c r="Q17" t="n">
-        <v>242.8219327268491</v>
+        <v>242.821932726849</v>
       </c>
       <c r="R17" t="n">
         <v>141.2477061884033</v>
       </c>
       <c r="S17" t="n">
-        <v>51.23964109236448</v>
+        <v>51.23964109236447</v>
       </c>
       <c r="T17" t="n">
-        <v>9.843182836284164</v>
+        <v>9.843182836284162</v>
       </c>
       <c r="U17" t="n">
         <v>0.1798868365283227</v>
@@ -32311,7 +32311,7 @@
         <v>11.61940624897377</v>
       </c>
       <c r="I18" t="n">
-        <v>41.42249729992919</v>
+        <v>41.42249729992918</v>
       </c>
       <c r="J18" t="n">
         <v>113.6664986417547</v>
@@ -32326,7 +32326,7 @@
         <v>304.8379196199883</v>
       </c>
       <c r="N18" t="n">
-        <v>312.9060722787899</v>
+        <v>312.9060722787898</v>
       </c>
       <c r="O18" t="n">
         <v>286.24792497188</v>
@@ -32338,16 +32338,16 @@
         <v>153.5745683333935</v>
       </c>
       <c r="R18" t="n">
-        <v>74.69769067233092</v>
+        <v>74.69769067233091</v>
       </c>
       <c r="S18" t="n">
         <v>22.34704153696815</v>
       </c>
       <c r="T18" t="n">
-        <v>4.849334397278332</v>
+        <v>4.849334397278331</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07915126872597936</v>
+        <v>0.07915126872597934</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.008638025513573</v>
+        <v>1.008638025513572</v>
       </c>
       <c r="H19" t="n">
-        <v>8.967708990475224</v>
+        <v>8.967708990475222</v>
       </c>
       <c r="I19" t="n">
-        <v>30.33249625817181</v>
+        <v>30.3324962581718</v>
       </c>
       <c r="J19" t="n">
-        <v>71.31070840380957</v>
+        <v>71.31070840380956</v>
       </c>
       <c r="K19" t="n">
-        <v>117.185399691486</v>
+        <v>117.1853996914859</v>
       </c>
       <c r="L19" t="n">
         <v>149.9569660840815</v>
       </c>
       <c r="M19" t="n">
-        <v>158.1085952175503</v>
+        <v>158.1085952175502</v>
       </c>
       <c r="N19" t="n">
         <v>154.3491262133634</v>
@@ -32411,22 +32411,22 @@
         <v>142.5664001880457</v>
       </c>
       <c r="P19" t="n">
-        <v>121.9901844675688</v>
+        <v>121.9901844675687</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.45968048186835</v>
+        <v>84.45968048186832</v>
       </c>
       <c r="R19" t="n">
-        <v>45.35203340172844</v>
+        <v>45.35203340172843</v>
       </c>
       <c r="S19" t="n">
         <v>17.57780995372289</v>
       </c>
       <c r="T19" t="n">
-        <v>4.309635199921627</v>
+        <v>4.309635199921626</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05501661957346766</v>
+        <v>0.05501661957346764</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>286.0285022754956</v>
       </c>
       <c r="L41" t="n">
-        <v>354.8436494430414</v>
+        <v>354.8436494430409</v>
       </c>
       <c r="M41" t="n">
         <v>394.8319310569233</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>16.12359609449083</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>56.43271173793306</v>
@@ -35500,7 +35500,7 @@
         <v>162.70388569797</v>
       </c>
       <c r="N12" t="n">
-        <v>181.5643601954565</v>
+        <v>197.6879562899474</v>
       </c>
       <c r="O12" t="n">
         <v>143.6516805274355</v>
@@ -35570,16 +35570,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>94.91590786560307</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>15.07228980284322</v>
+        <v>177.5469913443976</v>
       </c>
       <c r="M13" t="n">
-        <v>197.6924721793908</v>
+        <v>130.056445939669</v>
       </c>
       <c r="N13" t="n">
-        <v>198.4040660288216</v>
+        <v>198.481298592592</v>
       </c>
       <c r="O13" t="n">
         <v>167.1515281020854</v>
@@ -35737,7 +35737,7 @@
         <v>162.70388569797</v>
       </c>
       <c r="N15" t="n">
-        <v>197.6879562899476</v>
+        <v>181.5643601954565</v>
       </c>
       <c r="O15" t="n">
         <v>143.6516805274355</v>
@@ -35746,7 +35746,7 @@
         <v>95.76478843844893</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.59279424737196</v>
+        <v>29.71639034186293</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>94.91590786560307</v>
       </c>
       <c r="L16" t="n">
-        <v>15.07228980284322</v>
+        <v>177.5469913443976</v>
       </c>
       <c r="M16" t="n">
-        <v>197.6152396156206</v>
+        <v>197.6924721793908</v>
       </c>
       <c r="N16" t="n">
-        <v>198.481298592592</v>
+        <v>155.1981082197296</v>
       </c>
       <c r="O16" t="n">
         <v>167.1515281020854</v>
       </c>
       <c r="P16" t="n">
-        <v>119.2687437324622</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.799975370760535</v>
+        <v>9.799975370760507</v>
       </c>
       <c r="K17" t="n">
-        <v>65.93865123051512</v>
+        <v>65.93865123051506</v>
       </c>
       <c r="L17" t="n">
-        <v>119.0772344730542</v>
+        <v>119.0772344730541</v>
       </c>
       <c r="M17" t="n">
-        <v>164.4856978296507</v>
+        <v>164.4856978296506</v>
       </c>
       <c r="N17" t="n">
-        <v>171.8076608889087</v>
+        <v>171.8076608889086</v>
       </c>
       <c r="O17" t="n">
         <v>148.7631414297065</v>
       </c>
       <c r="P17" t="n">
-        <v>92.1164036362116</v>
+        <v>92.11640363621149</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.51624285239959</v>
+        <v>20.51624285239953</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>16.12359609449074</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>56.43271173793309</v>
+        <v>56.43271173793306</v>
       </c>
       <c r="L18" t="n">
         <v>122.6711907720996</v>
@@ -35974,16 +35974,16 @@
         <v>162.70388569797</v>
       </c>
       <c r="N18" t="n">
-        <v>181.5643601954566</v>
+        <v>181.5643601954565</v>
       </c>
       <c r="O18" t="n">
-        <v>143.6516805274356</v>
+        <v>143.6516805274355</v>
       </c>
       <c r="P18" t="n">
-        <v>95.76478843844899</v>
+        <v>95.76478843844893</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.59279424737198</v>
+        <v>29.71639034186247</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>94.9159078656031</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>177.5469913443977</v>
+        <v>177.5469913443976</v>
       </c>
       <c r="M19" t="n">
         <v>197.6924721793908</v>
       </c>
       <c r="N19" t="n">
-        <v>35.92936448726734</v>
+        <v>198.481298592592</v>
       </c>
       <c r="O19" t="n">
         <v>167.1515281020854</v>
       </c>
       <c r="P19" t="n">
-        <v>119.2687437324623</v>
+        <v>51.63271749274023</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>56.43271173793306</v>
+        <v>72.55630783242344</v>
       </c>
       <c r="L21" t="n">
         <v>122.6711907720996</v>
@@ -36211,7 +36211,7 @@
         <v>162.70388569797</v>
       </c>
       <c r="N21" t="n">
-        <v>197.6879562899476</v>
+        <v>181.5643601954565</v>
       </c>
       <c r="O21" t="n">
         <v>143.6516805274355</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>94.83867530183288</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>15.07228980284322</v>
+        <v>177.5469913443976</v>
       </c>
       <c r="M22" t="n">
         <v>197.6924721793908</v>
@@ -36296,7 +36296,7 @@
         <v>167.1515281020854</v>
       </c>
       <c r="P22" t="n">
-        <v>119.2687437324622</v>
+        <v>51.63271749274</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>162.70388569797</v>
       </c>
       <c r="N24" t="n">
-        <v>197.6879562899474</v>
+        <v>181.5643601954565</v>
       </c>
       <c r="O24" t="n">
         <v>143.6516805274355</v>
@@ -36457,7 +36457,7 @@
         <v>95.76478843844893</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.59279424737196</v>
+        <v>29.7163903418627</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>94.91590786560307</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>177.5469913443976</v>
@@ -36530,10 +36530,10 @@
         <v>198.481298592592</v>
       </c>
       <c r="O25" t="n">
-        <v>4.599593996760513</v>
+        <v>167.1515281020854</v>
       </c>
       <c r="P25" t="n">
-        <v>119.2687437324622</v>
+        <v>51.63271749274046</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>171.8076608889086</v>
       </c>
       <c r="O26" t="n">
-        <v>148.7631414297062</v>
+        <v>148.7631414297065</v>
       </c>
       <c r="P26" t="n">
         <v>92.11640363621149</v>
@@ -36685,10 +36685,10 @@
         <v>162.70388569797</v>
       </c>
       <c r="N27" t="n">
-        <v>181.5643601954565</v>
+        <v>197.6879562899478</v>
       </c>
       <c r="O27" t="n">
-        <v>159.7752766219263</v>
+        <v>143.6516805274355</v>
       </c>
       <c r="P27" t="n">
         <v>95.76478843844893</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>94.91590786560307</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>177.5469913443976</v>
       </c>
       <c r="M28" t="n">
-        <v>35.14053807406597</v>
+        <v>197.6924721793908</v>
       </c>
       <c r="N28" t="n">
         <v>198.481298592592</v>
@@ -36770,7 +36770,7 @@
         <v>167.1515281020854</v>
       </c>
       <c r="P28" t="n">
-        <v>119.2687437324622</v>
+        <v>51.63271749274092</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.799975370760507</v>
+        <v>9.799975370760766</v>
       </c>
       <c r="K29" t="n">
         <v>65.93865123051506</v>
@@ -36849,7 +36849,7 @@
         <v>148.7631414297065</v>
       </c>
       <c r="P29" t="n">
-        <v>92.11640363621129</v>
+        <v>92.11640363621149</v>
       </c>
       <c r="Q29" t="n">
         <v>20.51624285239953</v>
@@ -36925,13 +36925,13 @@
         <v>181.5643601954565</v>
       </c>
       <c r="O30" t="n">
-        <v>159.7752766219263</v>
+        <v>143.6516805274355</v>
       </c>
       <c r="P30" t="n">
         <v>95.76478843844893</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.59279424737196</v>
+        <v>29.71639034186316</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,13 +37001,13 @@
         <v>197.6924721793908</v>
       </c>
       <c r="N31" t="n">
-        <v>130.8452723528702</v>
+        <v>198.481298592592</v>
       </c>
       <c r="O31" t="n">
         <v>167.1515281020854</v>
       </c>
       <c r="P31" t="n">
-        <v>119.2687437324622</v>
+        <v>51.63271749274092</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9.799975370760507</v>
+        <v>9.799975370760766</v>
       </c>
       <c r="K32" t="n">
         <v>65.93865123051506</v>
@@ -37086,7 +37086,7 @@
         <v>148.7631414297065</v>
       </c>
       <c r="P32" t="n">
-        <v>92.11640363621129</v>
+        <v>92.11640363621149</v>
       </c>
       <c r="Q32" t="n">
         <v>20.51624285239953</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>16.12359609449083</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>56.43271173793306</v>
@@ -37168,7 +37168,7 @@
         <v>95.76478843844893</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.59279424737196</v>
+        <v>29.71639034186316</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>177.5469913443976</v>
       </c>
       <c r="M34" t="n">
-        <v>130.056445939669</v>
+        <v>197.6924721793908</v>
       </c>
       <c r="N34" t="n">
         <v>198.481298592592</v>
@@ -37244,7 +37244,7 @@
         <v>167.1515281020854</v>
       </c>
       <c r="P34" t="n">
-        <v>119.2687437324622</v>
+        <v>51.63271749274092</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>162.70388569797</v>
       </c>
       <c r="N36" t="n">
-        <v>181.5643601954565</v>
+        <v>197.6879562899474</v>
       </c>
       <c r="O36" t="n">
         <v>143.6516805274355</v>
       </c>
       <c r="P36" t="n">
-        <v>111.8883845329399</v>
+        <v>95.76478843844893</v>
       </c>
       <c r="Q36" t="n">
         <v>13.59279424737196</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>94.91590786560307</v>
+        <v>51.63271749274046</v>
       </c>
       <c r="L37" t="n">
-        <v>15.07228980284322</v>
+        <v>177.5469913443976</v>
       </c>
       <c r="M37" t="n">
         <v>197.6924721793908</v>
       </c>
       <c r="N37" t="n">
-        <v>198.4040660288218</v>
+        <v>198.481298592592</v>
       </c>
       <c r="O37" t="n">
         <v>167.1515281020854</v>
       </c>
       <c r="P37" t="n">
-        <v>119.2687437324622</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>181.5643601954565</v>
       </c>
       <c r="O39" t="n">
-        <v>159.7752766219263</v>
+        <v>159.7752766219261</v>
       </c>
       <c r="P39" t="n">
         <v>95.76478843844893</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>51.63271749274024</v>
       </c>
       <c r="L40" t="n">
         <v>177.5469913443976</v>
       </c>
       <c r="M40" t="n">
-        <v>130.056445939669</v>
+        <v>197.6924721793908</v>
       </c>
       <c r="N40" t="n">
         <v>198.481298592592</v>
@@ -37718,7 +37718,7 @@
         <v>167.1515281020854</v>
       </c>
       <c r="P40" t="n">
-        <v>119.2687437324622</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>65.93865123051506</v>
       </c>
       <c r="L41" t="n">
-        <v>119.0772344730541</v>
+        <v>119.0772344730537</v>
       </c>
       <c r="M41" t="n">
         <v>164.4856978296506</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>16.12359609449128</v>
+        <v>16.12359609449061</v>
       </c>
       <c r="K42" t="n">
         <v>56.43271173793306</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>94.91590786560307</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>15.07228980284322</v>
+        <v>177.5469913443976</v>
       </c>
       <c r="M43" t="n">
         <v>197.6924721793908</v>
       </c>
       <c r="N43" t="n">
-        <v>198.404066028822</v>
+        <v>198.481298592592</v>
       </c>
       <c r="O43" t="n">
         <v>167.1515281020854</v>
       </c>
       <c r="P43" t="n">
-        <v>119.2687437324622</v>
+        <v>51.63271749274023</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>16.12359609449061</v>
       </c>
       <c r="K45" t="n">
         <v>56.43271173793306</v>
@@ -38110,7 +38110,7 @@
         <v>181.5643601954565</v>
       </c>
       <c r="O45" t="n">
-        <v>159.7752766219261</v>
+        <v>143.6516805274355</v>
       </c>
       <c r="P45" t="n">
         <v>95.76478843844893</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>94.91590786560307</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>177.5469913443976</v>
@@ -38186,13 +38186,13 @@
         <v>197.6924721793908</v>
       </c>
       <c r="N46" t="n">
-        <v>35.92936448726689</v>
+        <v>198.481298592592</v>
       </c>
       <c r="O46" t="n">
         <v>167.1515281020854</v>
       </c>
       <c r="P46" t="n">
-        <v>119.2687437324622</v>
+        <v>51.63271749274023</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
